--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.701584436595141</v>
+        <v>1.701584436595226</v>
       </c>
       <c r="C2">
-        <v>0.349208657808731</v>
+        <v>0.34920865780893</v>
       </c>
       <c r="D2">
-        <v>0.01601220730052155</v>
+        <v>0.0160122073004203</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.198906045932489</v>
+        <v>2.198906045932475</v>
       </c>
       <c r="G2">
-        <v>1.616208802028197</v>
+        <v>1.616208802028183</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2660137505869145</v>
+        <v>0.266013750586886</v>
       </c>
       <c r="J2">
-        <v>0.4519425947522677</v>
+        <v>0.4519425947522535</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.467335896605135</v>
+        <v>1.467335896605277</v>
       </c>
       <c r="C3">
-        <v>0.3038654838693304</v>
+        <v>0.3038654838696289</v>
       </c>
       <c r="D3">
-        <v>0.01526950874406729</v>
+        <v>0.01526950874415789</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.971049811688701</v>
+        <v>1.971049811688715</v>
       </c>
       <c r="G3">
-        <v>1.455632110790503</v>
+        <v>1.455632110790518</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.232135537901371</v>
+        <v>0.2321355379013923</v>
       </c>
       <c r="J3">
-        <v>0.389908634702941</v>
+        <v>0.3899086347029268</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8247029298678257</v>
+        <v>0.8247029298678328</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,10 +491,10 @@
         <v>1.325373395222101</v>
       </c>
       <c r="C4">
-        <v>0.2763114483820743</v>
+        <v>0.2763114483820885</v>
       </c>
       <c r="D4">
-        <v>0.01480011313426566</v>
+        <v>0.01480011313414487</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0.2119512672942676</v>
       </c>
       <c r="J4">
-        <v>0.3522871406976051</v>
+        <v>0.3522871406976193</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,10 +529,10 @@
         <v>1.267918686283849</v>
       </c>
       <c r="C5">
-        <v>0.2651401319305222</v>
+        <v>0.2651401319306217</v>
       </c>
       <c r="D5">
-        <v>0.01460549967841374</v>
+        <v>0.01460549967841906</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,22 +541,22 @@
         <v>1.781005281949447</v>
       </c>
       <c r="G5">
-        <v>1.321944548211235</v>
+        <v>1.321944548211221</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2038613766387556</v>
+        <v>0.2038613766387485</v>
       </c>
       <c r="J5">
-        <v>0.3370540575101586</v>
+        <v>0.3370540575101373</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7118852012392196</v>
+        <v>0.7118852012392125</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.258400278005183</v>
+        <v>1.258400278005212</v>
       </c>
       <c r="C6">
-        <v>0.2632881850120583</v>
+        <v>0.2632881850118736</v>
       </c>
       <c r="D6">
-        <v>0.01457298410647034</v>
+        <v>0.01457298410646501</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>1.772034118465825</v>
       </c>
       <c r="G6">
-        <v>1.315639964162628</v>
+        <v>1.315639964162614</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0.2025256873529386</v>
       </c>
       <c r="J6">
-        <v>0.3345299925187888</v>
+        <v>0.3345299925187817</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7065181683454256</v>
+        <v>0.706518168345454</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.324597029231057</v>
+        <v>1.324597029231086</v>
       </c>
       <c r="C7">
-        <v>0.2761605753811978</v>
+        <v>0.2761605753810841</v>
       </c>
       <c r="D7">
-        <v>0.01479750195034768</v>
+        <v>0.01479750195046314</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.834620147918244</v>
+        <v>1.834620147918216</v>
       </c>
       <c r="G7">
         <v>1.359635224561785</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2118416409753934</v>
+        <v>0.2118416409753792</v>
       </c>
       <c r="J7">
-        <v>0.3520813299645695</v>
+        <v>0.3520813299646122</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.743878129480926</v>
+        <v>0.7438781294809189</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.620381814492077</v>
+        <v>1.620381814492191</v>
       </c>
       <c r="C8">
-        <v>0.3335053432896586</v>
+        <v>0.3335053432894597</v>
       </c>
       <c r="D8">
-        <v>0.01575891911059557</v>
+        <v>0.0157589191105707</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.119394975428477</v>
+        <v>2.119394975428492</v>
       </c>
       <c r="G8">
-        <v>1.560142543929445</v>
+        <v>1.560142543929459</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2541919425130956</v>
+        <v>0.2541919425131098</v>
       </c>
       <c r="J8">
-        <v>0.4304438691078829</v>
+        <v>0.4304438691079042</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9117514548737375</v>
+        <v>0.9117514548737446</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.218922444001521</v>
+        <v>2.218922444001578</v>
       </c>
       <c r="C9">
-        <v>0.4489921606362657</v>
+        <v>0.4489921606365215</v>
       </c>
       <c r="D9">
-        <v>0.01753696335495292</v>
+        <v>0.01753696335504173</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>2.716996551883284</v>
       </c>
       <c r="G9">
-        <v>1.982256049758519</v>
+        <v>1.982256049758533</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3431413524701981</v>
+        <v>0.3431413524701625</v>
       </c>
       <c r="J9">
-        <v>0.588811636991224</v>
+        <v>0.5888116369912311</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.255760878819856</v>
+        <v>1.255760878819885</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.675768262217673</v>
+        <v>2.675768262217616</v>
       </c>
       <c r="C10">
-        <v>0.5368916905710535</v>
+        <v>0.5368916905710819</v>
       </c>
       <c r="D10">
-        <v>0.01877676124000871</v>
+        <v>0.01877676124014727</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,16 +731,16 @@
         <v>3.188928569716268</v>
       </c>
       <c r="G10">
-        <v>2.316590087667038</v>
+        <v>2.316590087666981</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4136877325595165</v>
+        <v>0.4136877325595094</v>
       </c>
       <c r="J10">
-        <v>0.7095886264268572</v>
+        <v>0.7095886264268074</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>0.5778572300532119</v>
       </c>
       <c r="D11">
-        <v>0.01932621844347793</v>
+        <v>0.01932621844349924</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.413094093463741</v>
+        <v>3.413094093463712</v>
       </c>
       <c r="G11">
-        <v>2.475648159057712</v>
+        <v>2.475648159057698</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.447332316944518</v>
+        <v>0.4473323169444754</v>
       </c>
       <c r="J11">
-        <v>0.7658996084923544</v>
+        <v>0.7658996084923402</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.97039686017996</v>
+        <v>2.970396860180074</v>
       </c>
       <c r="C12">
-        <v>0.5935414234375855</v>
+        <v>0.5935414234377561</v>
       </c>
       <c r="D12">
-        <v>0.01953219238339443</v>
+        <v>0.0195321923834797</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.499569104584822</v>
+        <v>3.499569104584793</v>
       </c>
       <c r="G12">
-        <v>2.537046372972554</v>
+        <v>2.537046372972583</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4603377024576929</v>
+        <v>0.4603377024576858</v>
       </c>
       <c r="J12">
-        <v>0.7874592425400948</v>
+        <v>0.787459242540109</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,34 +833,34 @@
         <v>2.95278565562046</v>
       </c>
       <c r="C13">
-        <v>0.5901553922915923</v>
+        <v>0.5901553922918197</v>
       </c>
       <c r="D13">
-        <v>0.01948792528317966</v>
+        <v>0.01948792528305532</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.480870599166309</v>
+        <v>3.48087059916628</v>
       </c>
       <c r="G13">
-        <v>2.523768429693419</v>
+        <v>2.523768429693433</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4575242453673383</v>
+        <v>0.4575242453673809</v>
       </c>
       <c r="J13">
-        <v>0.7828048176732167</v>
+        <v>0.7828048176732381</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.684790031537545</v>
+        <v>1.684790031537574</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895513588350184</v>
+        <v>2.895513588349957</v>
       </c>
       <c r="C14">
-        <v>0.5791439512629779</v>
+        <v>0.5791439512630063</v>
       </c>
       <c r="D14">
-        <v>0.01934320599062289</v>
+        <v>0.01934320599075079</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.420175210356973</v>
+        <v>3.420175210356945</v>
       </c>
       <c r="G14">
         <v>2.480675027813973</v>
@@ -892,13 +892,13 @@
         <v>0.4483967070874115</v>
       </c>
       <c r="J14">
-        <v>0.7676683618332376</v>
+        <v>0.7676683618332163</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.651030004353288</v>
+        <v>1.651030004353245</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.860554269921295</v>
+        <v>2.860554269921352</v>
       </c>
       <c r="C15">
-        <v>0.5724224344199342</v>
+        <v>0.5724224344191953</v>
       </c>
       <c r="D15">
-        <v>0.01925428864391776</v>
+        <v>0.01925428864381118</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.383211597223294</v>
+        <v>3.383211597223323</v>
       </c>
       <c r="G15">
-        <v>2.45443623912044</v>
+        <v>2.454436239120426</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4428416708912692</v>
+        <v>0.4428416708912764</v>
       </c>
       <c r="J15">
-        <v>0.7584288168557336</v>
+        <v>0.7584288168557052</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.630445563517213</v>
+        <v>1.630445563517242</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.661961962118653</v>
+        <v>2.661961962118767</v>
       </c>
       <c r="C16">
-        <v>0.534236722494029</v>
+        <v>0.5342367224938016</v>
       </c>
       <c r="D16">
-        <v>0.01874055995553192</v>
+        <v>0.01874055995550705</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>3.174488154439331</v>
       </c>
       <c r="G16">
-        <v>2.306349027988801</v>
+        <v>2.306349027988787</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.411523640915668</v>
+        <v>0.4115236409156395</v>
       </c>
       <c r="J16">
-        <v>0.7059393333069224</v>
+        <v>0.7059393333068869</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.513842933239602</v>
+        <v>1.513842933239616</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.54156895556622</v>
       </c>
       <c r="C17">
-        <v>0.5110823324108082</v>
+        <v>0.5110823324107798</v>
       </c>
       <c r="D17">
-        <v>0.01842167637902037</v>
+        <v>0.01842167637889958</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3927364212223878</v>
+        <v>0.392736421222402</v>
       </c>
       <c r="J17">
-        <v>0.6741154776161622</v>
+        <v>0.6741154776161906</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.443429622310816</v>
+        <v>1.443429622310788</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.472804743448307</v>
+        <v>2.472804743448251</v>
       </c>
       <c r="C18">
-        <v>0.4978546759791698</v>
+        <v>0.497854675978914</v>
       </c>
       <c r="D18">
-        <v>0.01823689479114776</v>
+        <v>0.01823689479092749</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.977734716128424</v>
+        <v>2.977734716128396</v>
       </c>
       <c r="G18">
-        <v>2.166879034206815</v>
+        <v>2.166879034206787</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3820738215947088</v>
+        <v>0.3820738215947017</v>
       </c>
       <c r="J18">
-        <v>0.655937456404196</v>
+        <v>0.6559374564041818</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.449601160130157</v>
+        <v>2.449601160130044</v>
       </c>
       <c r="C19">
-        <v>0.4933906381563418</v>
+        <v>0.4933906381563702</v>
       </c>
       <c r="D19">
-        <v>0.01817409618904975</v>
+        <v>0.01817409618902843</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.9537423202963</v>
+        <v>2.953742320296357</v>
       </c>
       <c r="G19">
-        <v>2.14988058576651</v>
+        <v>2.149880585766525</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3784870941502234</v>
+        <v>0.3784870941502021</v>
       </c>
       <c r="J19">
-        <v>0.6498032651650547</v>
+        <v>0.649803265165076</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.554334055905088</v>
+        <v>2.554334055904974</v>
       </c>
       <c r="C20">
-        <v>0.5135376204029285</v>
+        <v>0.5135376204034117</v>
       </c>
       <c r="D20">
-        <v>0.0184557637377587</v>
+        <v>0.01845576373754909</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.062285898850433</v>
+        <v>3.062285898850376</v>
       </c>
       <c r="G20">
-        <v>2.226798302283484</v>
+        <v>2.226798302283456</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3947212388516519</v>
+        <v>0.3947212388517087</v>
       </c>
       <c r="J20">
-        <v>0.6774898524089679</v>
+        <v>0.6774898524089394</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.45088556797198</v>
+        <v>1.450885567971952</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>2.912310179761675</v>
       </c>
       <c r="C21">
-        <v>0.5823733599090133</v>
+        <v>0.5823733599090701</v>
       </c>
       <c r="D21">
-        <v>0.01938577035830846</v>
+        <v>0.01938577035831557</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0.4510701327611812</v>
       </c>
       <c r="J21">
-        <v>0.7721075654811855</v>
+        <v>0.7721075654811571</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.151579968007638</v>
+        <v>3.151579968007752</v>
       </c>
       <c r="C22">
-        <v>0.6283783067435706</v>
+        <v>0.6283783067438264</v>
       </c>
       <c r="D22">
-        <v>0.01998138570432673</v>
+        <v>0.01998138570434449</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.692867676926625</v>
+        <v>3.692867676926568</v>
       </c>
       <c r="G22">
-        <v>2.674365604931381</v>
+        <v>2.674365604931367</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4894657242410361</v>
+        <v>0.4894657242411</v>
       </c>
       <c r="J22">
         <v>0.835342906501694</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.023337859150445</v>
+        <v>3.023337859150558</v>
       </c>
       <c r="C23">
         <v>0.6037202530442016</v>
       </c>
       <c r="D23">
-        <v>0.01966460942825421</v>
+        <v>0.01966460942837855</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4688142653755136</v>
+        <v>0.4688142653755349</v>
       </c>
       <c r="J23">
-        <v>0.8014507900605494</v>
+        <v>0.8014507900605352</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.726442394697102</v>
+        <v>1.726442394697088</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.54856155893043</v>
+        <v>2.548561558930544</v>
       </c>
       <c r="C24">
-        <v>0.5124273249655573</v>
+        <v>0.5124273249657563</v>
       </c>
       <c r="D24">
-        <v>0.01844035736236904</v>
+        <v>0.01844035736236549</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.056286747163597</v>
+        <v>3.056286747163625</v>
       </c>
       <c r="G24">
-        <v>2.222546079641674</v>
+        <v>2.222546079641646</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0.3938234747036518</v>
       </c>
       <c r="J24">
-        <v>0.6759639330944722</v>
+        <v>0.675963933094458</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.054460817195093</v>
+        <v>2.054460817195178</v>
       </c>
       <c r="C25">
-        <v>0.4173100472512203</v>
+        <v>0.4173100472516182</v>
       </c>
       <c r="D25">
-        <v>0.01706757754557664</v>
+        <v>0.0170675775457827</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.550271151772563</v>
+        <v>2.550271151772591</v>
       </c>
       <c r="G25">
-        <v>1.864334291564518</v>
+        <v>1.864334291564532</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3182940270986663</v>
+        <v>0.3182940270986734</v>
       </c>
       <c r="J25">
-        <v>0.5453160863945428</v>
+        <v>0.5453160863945286</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.160690648989849</v>
+        <v>1.160690648989814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.701584436595226</v>
+        <v>1.701584436595141</v>
       </c>
       <c r="C2">
-        <v>0.34920865780893</v>
+        <v>0.349208657808731</v>
       </c>
       <c r="D2">
-        <v>0.0160122073004203</v>
+        <v>0.01601220730052155</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.198906045932475</v>
+        <v>2.198906045932489</v>
       </c>
       <c r="G2">
-        <v>1.616208802028183</v>
+        <v>1.616208802028197</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.266013750586886</v>
+        <v>0.2660137505869145</v>
       </c>
       <c r="J2">
-        <v>0.4519425947522535</v>
+        <v>0.4519425947522677</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.467335896605277</v>
+        <v>1.467335896605135</v>
       </c>
       <c r="C3">
-        <v>0.3038654838696289</v>
+        <v>0.3038654838693304</v>
       </c>
       <c r="D3">
-        <v>0.01526950874415789</v>
+        <v>0.01526950874406729</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.971049811688715</v>
+        <v>1.971049811688701</v>
       </c>
       <c r="G3">
-        <v>1.455632110790518</v>
+        <v>1.455632110790503</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2321355379013923</v>
+        <v>0.232135537901371</v>
       </c>
       <c r="J3">
-        <v>0.3899086347029268</v>
+        <v>0.389908634702941</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8247029298678328</v>
+        <v>0.8247029298678257</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,10 +491,10 @@
         <v>1.325373395222101</v>
       </c>
       <c r="C4">
-        <v>0.2763114483820885</v>
+        <v>0.2763114483820743</v>
       </c>
       <c r="D4">
-        <v>0.01480011313414487</v>
+        <v>0.01480011313426566</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0.2119512672942676</v>
       </c>
       <c r="J4">
-        <v>0.3522871406976193</v>
+        <v>0.3522871406976051</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,10 +529,10 @@
         <v>1.267918686283849</v>
       </c>
       <c r="C5">
-        <v>0.2651401319306217</v>
+        <v>0.2651401319305222</v>
       </c>
       <c r="D5">
-        <v>0.01460549967841906</v>
+        <v>0.01460549967841374</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,22 +541,22 @@
         <v>1.781005281949447</v>
       </c>
       <c r="G5">
-        <v>1.321944548211221</v>
+        <v>1.321944548211235</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2038613766387485</v>
+        <v>0.2038613766387556</v>
       </c>
       <c r="J5">
-        <v>0.3370540575101373</v>
+        <v>0.3370540575101586</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7118852012392125</v>
+        <v>0.7118852012392196</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.258400278005212</v>
+        <v>1.258400278005183</v>
       </c>
       <c r="C6">
-        <v>0.2632881850118736</v>
+        <v>0.2632881850120583</v>
       </c>
       <c r="D6">
-        <v>0.01457298410646501</v>
+        <v>0.01457298410647034</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>1.772034118465825</v>
       </c>
       <c r="G6">
-        <v>1.315639964162614</v>
+        <v>1.315639964162628</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0.2025256873529386</v>
       </c>
       <c r="J6">
-        <v>0.3345299925187817</v>
+        <v>0.3345299925187888</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.706518168345454</v>
+        <v>0.7065181683454256</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.324597029231086</v>
+        <v>1.324597029231057</v>
       </c>
       <c r="C7">
-        <v>0.2761605753810841</v>
+        <v>0.2761605753811978</v>
       </c>
       <c r="D7">
-        <v>0.01479750195046314</v>
+        <v>0.01479750195034768</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.834620147918216</v>
+        <v>1.834620147918244</v>
       </c>
       <c r="G7">
         <v>1.359635224561785</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2118416409753792</v>
+        <v>0.2118416409753934</v>
       </c>
       <c r="J7">
-        <v>0.3520813299646122</v>
+        <v>0.3520813299645695</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7438781294809189</v>
+        <v>0.743878129480926</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.620381814492191</v>
+        <v>1.620381814492077</v>
       </c>
       <c r="C8">
-        <v>0.3335053432894597</v>
+        <v>0.3335053432896586</v>
       </c>
       <c r="D8">
-        <v>0.0157589191105707</v>
+        <v>0.01575891911059557</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.119394975428492</v>
+        <v>2.119394975428477</v>
       </c>
       <c r="G8">
-        <v>1.560142543929459</v>
+        <v>1.560142543929445</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2541919425131098</v>
+        <v>0.2541919425130956</v>
       </c>
       <c r="J8">
-        <v>0.4304438691079042</v>
+        <v>0.4304438691078829</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9117514548737446</v>
+        <v>0.9117514548737375</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.218922444001578</v>
+        <v>2.218922444001521</v>
       </c>
       <c r="C9">
-        <v>0.4489921606365215</v>
+        <v>0.4489921606362657</v>
       </c>
       <c r="D9">
-        <v>0.01753696335504173</v>
+        <v>0.01753696335495292</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>2.716996551883284</v>
       </c>
       <c r="G9">
-        <v>1.982256049758533</v>
+        <v>1.982256049758519</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3431413524701625</v>
+        <v>0.3431413524701981</v>
       </c>
       <c r="J9">
-        <v>0.5888116369912311</v>
+        <v>0.588811636991224</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.255760878819885</v>
+        <v>1.255760878819856</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.675768262217616</v>
+        <v>2.675768262217673</v>
       </c>
       <c r="C10">
-        <v>0.5368916905710819</v>
+        <v>0.5368916905710535</v>
       </c>
       <c r="D10">
-        <v>0.01877676124014727</v>
+        <v>0.01877676124000871</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,16 +731,16 @@
         <v>3.188928569716268</v>
       </c>
       <c r="G10">
-        <v>2.316590087666981</v>
+        <v>2.316590087667038</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4136877325595094</v>
+        <v>0.4136877325595165</v>
       </c>
       <c r="J10">
-        <v>0.7095886264268074</v>
+        <v>0.7095886264268572</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>0.5778572300532119</v>
       </c>
       <c r="D11">
-        <v>0.01932621844349924</v>
+        <v>0.01932621844347793</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.413094093463712</v>
+        <v>3.413094093463741</v>
       </c>
       <c r="G11">
-        <v>2.475648159057698</v>
+        <v>2.475648159057712</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4473323169444754</v>
+        <v>0.447332316944518</v>
       </c>
       <c r="J11">
-        <v>0.7658996084923402</v>
+        <v>0.7658996084923544</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.970396860180074</v>
+        <v>2.97039686017996</v>
       </c>
       <c r="C12">
-        <v>0.5935414234377561</v>
+        <v>0.5935414234375855</v>
       </c>
       <c r="D12">
-        <v>0.0195321923834797</v>
+        <v>0.01953219238339443</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.499569104584793</v>
+        <v>3.499569104584822</v>
       </c>
       <c r="G12">
-        <v>2.537046372972583</v>
+        <v>2.537046372972554</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4603377024576858</v>
+        <v>0.4603377024576929</v>
       </c>
       <c r="J12">
-        <v>0.787459242540109</v>
+        <v>0.7874592425400948</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,34 +833,34 @@
         <v>2.95278565562046</v>
       </c>
       <c r="C13">
-        <v>0.5901553922918197</v>
+        <v>0.5901553922915923</v>
       </c>
       <c r="D13">
-        <v>0.01948792528305532</v>
+        <v>0.01948792528317966</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.48087059916628</v>
+        <v>3.480870599166309</v>
       </c>
       <c r="G13">
-        <v>2.523768429693433</v>
+        <v>2.523768429693419</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4575242453673809</v>
+        <v>0.4575242453673383</v>
       </c>
       <c r="J13">
-        <v>0.7828048176732381</v>
+        <v>0.7828048176732167</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.684790031537574</v>
+        <v>1.684790031537545</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895513588349957</v>
+        <v>2.895513588350184</v>
       </c>
       <c r="C14">
-        <v>0.5791439512630063</v>
+        <v>0.5791439512629779</v>
       </c>
       <c r="D14">
-        <v>0.01934320599075079</v>
+        <v>0.01934320599062289</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.420175210356945</v>
+        <v>3.420175210356973</v>
       </c>
       <c r="G14">
         <v>2.480675027813973</v>
@@ -892,13 +892,13 @@
         <v>0.4483967070874115</v>
       </c>
       <c r="J14">
-        <v>0.7676683618332163</v>
+        <v>0.7676683618332376</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.651030004353245</v>
+        <v>1.651030004353288</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.860554269921352</v>
+        <v>2.860554269921295</v>
       </c>
       <c r="C15">
-        <v>0.5724224344191953</v>
+        <v>0.5724224344199342</v>
       </c>
       <c r="D15">
-        <v>0.01925428864381118</v>
+        <v>0.01925428864391776</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.383211597223323</v>
+        <v>3.383211597223294</v>
       </c>
       <c r="G15">
-        <v>2.454436239120426</v>
+        <v>2.45443623912044</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4428416708912764</v>
+        <v>0.4428416708912692</v>
       </c>
       <c r="J15">
-        <v>0.7584288168557052</v>
+        <v>0.7584288168557336</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.630445563517242</v>
+        <v>1.630445563517213</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.661961962118767</v>
+        <v>2.661961962118653</v>
       </c>
       <c r="C16">
-        <v>0.5342367224938016</v>
+        <v>0.534236722494029</v>
       </c>
       <c r="D16">
-        <v>0.01874055995550705</v>
+        <v>0.01874055995553192</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>3.174488154439331</v>
       </c>
       <c r="G16">
-        <v>2.306349027988787</v>
+        <v>2.306349027988801</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4115236409156395</v>
+        <v>0.411523640915668</v>
       </c>
       <c r="J16">
-        <v>0.7059393333068869</v>
+        <v>0.7059393333069224</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.513842933239616</v>
+        <v>1.513842933239602</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.54156895556622</v>
       </c>
       <c r="C17">
-        <v>0.5110823324107798</v>
+        <v>0.5110823324108082</v>
       </c>
       <c r="D17">
-        <v>0.01842167637889958</v>
+        <v>0.01842167637902037</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.392736421222402</v>
+        <v>0.3927364212223878</v>
       </c>
       <c r="J17">
-        <v>0.6741154776161906</v>
+        <v>0.6741154776161622</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.443429622310788</v>
+        <v>1.443429622310816</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.472804743448251</v>
+        <v>2.472804743448307</v>
       </c>
       <c r="C18">
-        <v>0.497854675978914</v>
+        <v>0.4978546759791698</v>
       </c>
       <c r="D18">
-        <v>0.01823689479092749</v>
+        <v>0.01823689479114776</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.977734716128396</v>
+        <v>2.977734716128424</v>
       </c>
       <c r="G18">
-        <v>2.166879034206787</v>
+        <v>2.166879034206815</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3820738215947017</v>
+        <v>0.3820738215947088</v>
       </c>
       <c r="J18">
-        <v>0.6559374564041818</v>
+        <v>0.655937456404196</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.449601160130044</v>
+        <v>2.449601160130157</v>
       </c>
       <c r="C19">
-        <v>0.4933906381563702</v>
+        <v>0.4933906381563418</v>
       </c>
       <c r="D19">
-        <v>0.01817409618902843</v>
+        <v>0.01817409618904975</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.953742320296357</v>
+        <v>2.9537423202963</v>
       </c>
       <c r="G19">
-        <v>2.149880585766525</v>
+        <v>2.14988058576651</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3784870941502021</v>
+        <v>0.3784870941502234</v>
       </c>
       <c r="J19">
-        <v>0.649803265165076</v>
+        <v>0.6498032651650547</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.554334055904974</v>
+        <v>2.554334055905088</v>
       </c>
       <c r="C20">
-        <v>0.5135376204034117</v>
+        <v>0.5135376204029285</v>
       </c>
       <c r="D20">
-        <v>0.01845576373754909</v>
+        <v>0.0184557637377587</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.062285898850376</v>
+        <v>3.062285898850433</v>
       </c>
       <c r="G20">
-        <v>2.226798302283456</v>
+        <v>2.226798302283484</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3947212388517087</v>
+        <v>0.3947212388516519</v>
       </c>
       <c r="J20">
-        <v>0.6774898524089394</v>
+        <v>0.6774898524089679</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.450885567971952</v>
+        <v>1.45088556797198</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>2.912310179761675</v>
       </c>
       <c r="C21">
-        <v>0.5823733599090701</v>
+        <v>0.5823733599090133</v>
       </c>
       <c r="D21">
-        <v>0.01938577035831557</v>
+        <v>0.01938577035830846</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0.4510701327611812</v>
       </c>
       <c r="J21">
-        <v>0.7721075654811571</v>
+        <v>0.7721075654811855</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.151579968007752</v>
+        <v>3.151579968007638</v>
       </c>
       <c r="C22">
-        <v>0.6283783067438264</v>
+        <v>0.6283783067435706</v>
       </c>
       <c r="D22">
-        <v>0.01998138570434449</v>
+        <v>0.01998138570432673</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.692867676926568</v>
+        <v>3.692867676926625</v>
       </c>
       <c r="G22">
-        <v>2.674365604931367</v>
+        <v>2.674365604931381</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4894657242411</v>
+        <v>0.4894657242410361</v>
       </c>
       <c r="J22">
         <v>0.835342906501694</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.023337859150558</v>
+        <v>3.023337859150445</v>
       </c>
       <c r="C23">
         <v>0.6037202530442016</v>
       </c>
       <c r="D23">
-        <v>0.01966460942837855</v>
+        <v>0.01966460942825421</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4688142653755349</v>
+        <v>0.4688142653755136</v>
       </c>
       <c r="J23">
-        <v>0.8014507900605352</v>
+        <v>0.8014507900605494</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.726442394697088</v>
+        <v>1.726442394697102</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.548561558930544</v>
+        <v>2.54856155893043</v>
       </c>
       <c r="C24">
-        <v>0.5124273249657563</v>
+        <v>0.5124273249655573</v>
       </c>
       <c r="D24">
-        <v>0.01844035736236549</v>
+        <v>0.01844035736236904</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.056286747163625</v>
+        <v>3.056286747163597</v>
       </c>
       <c r="G24">
-        <v>2.222546079641646</v>
+        <v>2.222546079641674</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0.3938234747036518</v>
       </c>
       <c r="J24">
-        <v>0.675963933094458</v>
+        <v>0.6759639330944722</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.054460817195178</v>
+        <v>2.054460817195093</v>
       </c>
       <c r="C25">
-        <v>0.4173100472516182</v>
+        <v>0.4173100472512203</v>
       </c>
       <c r="D25">
-        <v>0.0170675775457827</v>
+        <v>0.01706757754557664</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.550271151772591</v>
+        <v>2.550271151772563</v>
       </c>
       <c r="G25">
-        <v>1.864334291564532</v>
+        <v>1.864334291564518</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3182940270986734</v>
+        <v>0.3182940270986663</v>
       </c>
       <c r="J25">
-        <v>0.5453160863945286</v>
+        <v>0.5453160863945428</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.160690648989814</v>
+        <v>1.160690648989849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.701584436595141</v>
+        <v>1.701468808160712</v>
       </c>
       <c r="C2">
-        <v>0.349208657808731</v>
+        <v>0.3491617909035938</v>
       </c>
       <c r="D2">
-        <v>0.01601220730052155</v>
+        <v>0.01606595151197432</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.198906045932489</v>
+        <v>2.194571534746387</v>
       </c>
       <c r="G2">
-        <v>1.616208802028197</v>
+        <v>0.5132428811253078</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.102735232924431</v>
       </c>
       <c r="I2">
-        <v>0.2660137505869145</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4519425947522677</v>
+        <v>0.2659368049419015</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4519052375396626</v>
       </c>
       <c r="L2">
-        <v>0.9580942280259066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.9582330834101356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.467335896605135</v>
+        <v>1.467260012903438</v>
       </c>
       <c r="C3">
-        <v>0.3038654838693304</v>
+        <v>0.3038365680795607</v>
       </c>
       <c r="D3">
-        <v>0.01526950874406729</v>
+        <v>0.01531303443718457</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.971049811688701</v>
+        <v>1.967215366125757</v>
       </c>
       <c r="G3">
-        <v>1.455632110790503</v>
+        <v>0.4572468184373122</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9987346531831918</v>
       </c>
       <c r="I3">
-        <v>0.232135537901371</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.389908634702941</v>
+        <v>0.2320694152905176</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3898844912593091</v>
       </c>
       <c r="L3">
-        <v>0.8247029298678257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8248322639020884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.325373395222101</v>
+        <v>1.325318189359365</v>
       </c>
       <c r="C4">
-        <v>0.2763114483820743</v>
+        <v>0.2762926707754048</v>
       </c>
       <c r="D4">
-        <v>0.01480011313426566</v>
+        <v>0.01483734302609463</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.835356831323281</v>
+        <v>1.831823950523571</v>
       </c>
       <c r="G4">
-        <v>1.360153247818957</v>
+        <v>0.4238726813503035</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9369796341459846</v>
       </c>
       <c r="I4">
-        <v>0.2119512672942676</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3522871406976051</v>
+        <v>0.2118917681771251</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3522700638912255</v>
       </c>
       <c r="L4">
-        <v>0.7443167656519236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7444389167979963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.267918686283849</v>
+        <v>1.267871087314518</v>
       </c>
       <c r="C5">
-        <v>0.2651401319305222</v>
+        <v>0.2651252956180485</v>
       </c>
       <c r="D5">
-        <v>0.01460549967841374</v>
+        <v>0.01464015729215973</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.781005281949447</v>
+        <v>1.777594152888341</v>
       </c>
       <c r="G5">
-        <v>1.321944548211235</v>
+        <v>0.4104973784557728</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9122873923186887</v>
       </c>
       <c r="I5">
-        <v>0.2038613766387556</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3370540575101586</v>
+        <v>0.2038045789839558</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3370396310473254</v>
       </c>
       <c r="L5">
-        <v>0.7118852012392196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7120041355873852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.258400278005183</v>
+        <v>1.258353895849922</v>
       </c>
       <c r="C6">
-        <v>0.2632881850120583</v>
+        <v>0.2632739925425369</v>
       </c>
       <c r="D6">
-        <v>0.01457298410647034</v>
+        <v>0.01460721415718425</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.772034118465825</v>
+        <v>1.768643143961043</v>
       </c>
       <c r="G6">
-        <v>1.315639964162628</v>
+        <v>0.4082892170176677</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9082143339548878</v>
       </c>
       <c r="I6">
-        <v>0.2025256873529386</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3345299925187888</v>
+        <v>0.2024693386175542</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3345159932104309</v>
       </c>
       <c r="L6">
-        <v>0.7065181683454256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7066365522892966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.324597029231057</v>
+        <v>1.324541929129964</v>
       </c>
       <c r="C7">
-        <v>0.2761605753811978</v>
+        <v>0.2761418516580392</v>
       </c>
       <c r="D7">
-        <v>0.01479750195034768</v>
+        <v>0.01483469718032637</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.834620147918244</v>
+        <v>1.831088913416025</v>
       </c>
       <c r="G7">
-        <v>1.359635224561785</v>
+        <v>0.4236914225191413</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9366447785295549</v>
       </c>
       <c r="I7">
-        <v>0.2118416409753934</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3520813299645695</v>
+        <v>0.2117821782723581</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3520642897882951</v>
       </c>
       <c r="L7">
-        <v>0.743878129480926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7440002383603641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.620381814492077</v>
+        <v>1.620280738102593</v>
       </c>
       <c r="C8">
-        <v>0.3335053432896586</v>
+        <v>0.3334648698615013</v>
       </c>
       <c r="D8">
-        <v>0.01575891911059557</v>
+        <v>0.01580914365221453</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.119394975428477</v>
+        <v>2.115234175729924</v>
       </c>
       <c r="G8">
-        <v>1.560142543929445</v>
+        <v>0.493708394957082</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.066404968896435</v>
       </c>
       <c r="I8">
-        <v>0.2541919425130956</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4304438691078829</v>
+        <v>0.2541187383909573</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4304113067991722</v>
       </c>
       <c r="L8">
-        <v>0.9117514548737375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9118873347334855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.218922444001521</v>
+        <v>2.218695573571665</v>
       </c>
       <c r="C9">
-        <v>0.4489921606362657</v>
+        <v>0.4489003623436929</v>
       </c>
       <c r="D9">
-        <v>0.01753696335495292</v>
+        <v>0.01761263300007698</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.716996551883284</v>
+        <v>2.711545408526575</v>
       </c>
       <c r="G9">
-        <v>1.982256049758519</v>
+        <v>0.6404318218537668</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.340298441608255</v>
       </c>
       <c r="I9">
-        <v>0.3431413524701981</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.588811636991224</v>
+        <v>0.3430405796739322</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5887385815282613</v>
       </c>
       <c r="L9">
-        <v>1.255760878819856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.255910671868961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.675768262217673</v>
+        <v>2.675417309849138</v>
       </c>
       <c r="C10">
-        <v>0.5368916905710535</v>
+        <v>0.5367541872881816</v>
       </c>
       <c r="D10">
-        <v>0.01877676124000871</v>
+        <v>0.01887116857484727</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.188928569716268</v>
+        <v>3.182475454975702</v>
       </c>
       <c r="G10">
-        <v>2.316590087667038</v>
+        <v>0.7562057203849974</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.557697687287899</v>
       </c>
       <c r="I10">
-        <v>0.4136877325595165</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7095886264268572</v>
+        <v>0.4135655082456466</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7094768319367191</v>
       </c>
       <c r="L10">
-        <v>1.521931011317136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.52207881342332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.888821190734632</v>
+        <v>2.888404170425815</v>
       </c>
       <c r="C11">
-        <v>0.5778572300532119</v>
+        <v>0.5776964527776727</v>
       </c>
       <c r="D11">
-        <v>0.01932621844347793</v>
+        <v>0.0194291880079156</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.413094093463741</v>
+        <v>3.406168016606642</v>
       </c>
       <c r="G11">
-        <v>2.475648159057712</v>
+        <v>0.8111848715177672</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.661229323378507</v>
       </c>
       <c r="I11">
-        <v>0.447332316944518</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7658996084923544</v>
+        <v>0.4471998165866466</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7657674500304381</v>
       </c>
       <c r="L11">
-        <v>1.647088098563344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.647231111054978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.97039686017996</v>
+        <v>2.96995315572957</v>
       </c>
       <c r="C12">
-        <v>0.5935414234375855</v>
+        <v>0.5933713995633525</v>
       </c>
       <c r="D12">
-        <v>0.01953219238339443</v>
+        <v>0.01963841253821386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.499569104584822</v>
+        <v>3.49246091361141</v>
       </c>
       <c r="G12">
-        <v>2.537046372972554</v>
+        <v>0.8323926913168123</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.701209133506751</v>
       </c>
       <c r="I12">
-        <v>0.4603377024576929</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7874592425400948</v>
+        <v>0.4602012071639123</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7873188975527441</v>
       </c>
       <c r="L12">
-        <v>1.695180645048893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.695321153036801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.95278565562046</v>
+        <v>2.95234777721771</v>
       </c>
       <c r="C13">
-        <v>0.5901553922915923</v>
+        <v>0.589987380473616</v>
       </c>
       <c r="D13">
-        <v>0.01948792528317966</v>
+        <v>0.01959344494960646</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.480870599166309</v>
+        <v>3.473801773490834</v>
       </c>
       <c r="G13">
-        <v>2.523768429693419</v>
+        <v>0.8278069611573926</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.692562432203545</v>
       </c>
       <c r="I13">
-        <v>0.4575242453673383</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7828048176732167</v>
+        <v>0.4573886156142279</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.7826662583838484</v>
       </c>
       <c r="L13">
-        <v>1.684790031537545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.684931112064163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895513588350184</v>
+        <v>2.895094407906583</v>
       </c>
       <c r="C14">
-        <v>0.5791439512629779</v>
+        <v>0.57898242243445</v>
       </c>
       <c r="D14">
-        <v>0.01934320599062289</v>
+        <v>0.01944644280047925</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.420175210356973</v>
+        <v>3.413234214730409</v>
       </c>
       <c r="G14">
-        <v>2.480675027813973</v>
+        <v>0.8129215200290218</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.664502289341627</v>
       </c>
       <c r="I14">
-        <v>0.4483967070874115</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7676683618332376</v>
+        <v>0.4482638803361141</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7675355399007202</v>
       </c>
       <c r="L14">
-        <v>1.651030004353288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.651172825505512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.860554269921295</v>
+        <v>2.860146316337364</v>
       </c>
       <c r="C15">
-        <v>0.5724224344199342</v>
+        <v>0.5722648176863743</v>
       </c>
       <c r="D15">
-        <v>0.01925428864391776</v>
+        <v>0.01935612830198963</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.383211597223294</v>
+        <v>3.376348490893747</v>
       </c>
       <c r="G15">
-        <v>2.45443623912044</v>
+        <v>0.8038561275492526</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.647418982133175</v>
       </c>
       <c r="I15">
-        <v>0.4428416708912692</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7584288168557336</v>
+        <v>0.442710546563994</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7582994446862585</v>
       </c>
       <c r="L15">
-        <v>1.630445563517213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.630589356465961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.661961962118653</v>
+        <v>2.661615110873299</v>
       </c>
       <c r="C16">
-        <v>0.534236722494029</v>
+        <v>0.5341006840562841</v>
       </c>
       <c r="D16">
-        <v>0.01874055995553192</v>
+        <v>0.01883440872589404</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.174488154439331</v>
+        <v>3.168065559014678</v>
       </c>
       <c r="G16">
-        <v>2.306349027988801</v>
+        <v>0.7526638459263211</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.551033834772696</v>
       </c>
       <c r="I16">
-        <v>0.411523640915668</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7059393333069224</v>
+        <v>0.4114020754274321</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7058288078998771</v>
       </c>
       <c r="L16">
-        <v>1.513842933239602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.51399095954217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.54156895556622</v>
+        <v>2.541256939126015</v>
       </c>
       <c r="C17">
-        <v>0.5110823324108082</v>
+        <v>0.510958845635372</v>
       </c>
       <c r="D17">
-        <v>0.01842167637902037</v>
+        <v>0.01851063465154112</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.049022157541202</v>
+        <v>3.042865046196084</v>
       </c>
       <c r="G17">
-        <v>2.217397066899068</v>
+        <v>0.7218888341754166</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.493164321431863</v>
       </c>
       <c r="I17">
-        <v>0.3927364212223878</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6741154776161622</v>
+        <v>0.3926205687512763</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6740157588455276</v>
       </c>
       <c r="L17">
-        <v>1.443429622310816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.443579165455603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.472804743448307</v>
+        <v>2.472511876962471</v>
       </c>
       <c r="C18">
-        <v>0.4978546759791698</v>
+        <v>0.4977381802107459</v>
       </c>
       <c r="D18">
-        <v>0.01823689479114776</v>
+        <v>0.01832304360271664</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.977734716128424</v>
+        <v>2.971728726676218</v>
       </c>
       <c r="G18">
-        <v>2.166879034206815</v>
+        <v>0.7044018195925048</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.460308366055799</v>
       </c>
       <c r="I18">
-        <v>0.3820738215947088</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.655937456404196</v>
+        <v>0.3819612085181987</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6558437009157743</v>
       </c>
       <c r="L18">
-        <v>1.403305697389996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.403455756824201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.449601160130157</v>
+        <v>2.449314633076938</v>
       </c>
       <c r="C19">
-        <v>0.4933906381563418</v>
+        <v>0.4932764723045011</v>
       </c>
       <c r="D19">
-        <v>0.01817409618904975</v>
+        <v>0.01825929427665329</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.9537423202963</v>
+        <v>2.947787242327394</v>
       </c>
       <c r="G19">
-        <v>2.14988058576651</v>
+        <v>0.6985161852884829</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.449254537983805</v>
       </c>
       <c r="I19">
-        <v>0.3784870941502234</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6498032651650547</v>
+        <v>0.3783755706446996</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6497114876229304</v>
       </c>
       <c r="L19">
-        <v>1.389781832229872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.389932008877707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.554334055905088</v>
+        <v>2.554018424828882</v>
       </c>
       <c r="C20">
-        <v>0.5135376204029285</v>
+        <v>0.5134128216277531</v>
       </c>
       <c r="D20">
-        <v>0.0184557637377587</v>
+        <v>0.01854524223899645</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.062285898850433</v>
+        <v>3.05610069319934</v>
       </c>
       <c r="G20">
-        <v>2.226798302283484</v>
+        <v>0.7251423626556033</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.499279487965566</v>
       </c>
       <c r="I20">
-        <v>0.3947212388516519</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6774898524089679</v>
+        <v>0.3946047832283313</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6773890099166238</v>
       </c>
       <c r="L20">
-        <v>1.45088556797198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.451034987375039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.912310179761675</v>
+        <v>2.911885554989624</v>
       </c>
       <c r="C21">
-        <v>0.5823733599090133</v>
+        <v>0.5822099393049882</v>
       </c>
       <c r="D21">
-        <v>0.01938577035830846</v>
+        <v>0.01948967745011387</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.437957859779345</v>
+        <v>3.43097940398809</v>
       </c>
       <c r="G21">
-        <v>2.493299525346458</v>
+        <v>0.8172827103144016</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.672722274619616</v>
       </c>
       <c r="I21">
-        <v>0.4510701327611812</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7721075654811855</v>
+        <v>0.4509364857848368</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7719730719628544</v>
       </c>
       <c r="L21">
-        <v>1.660926214121403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.661068543958791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.151579968007638</v>
+        <v>3.151074229506207</v>
       </c>
       <c r="C22">
-        <v>0.6283783067435706</v>
+        <v>0.628187073076333</v>
       </c>
       <c r="D22">
-        <v>0.01998138570432673</v>
+        <v>0.02009477244429192</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.692867676926625</v>
+        <v>3.685352893577885</v>
       </c>
       <c r="G22">
-        <v>2.674365604931381</v>
+        <v>0.8797974587590289</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.790653775319669</v>
       </c>
       <c r="I22">
-        <v>0.4894657242410361</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.835342906501694</v>
+        <v>0.4893202179685829</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8351836015284917</v>
       </c>
       <c r="L22">
-        <v>1.802334690799597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.802468276517331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.023337859150445</v>
+        <v>3.022876424176616</v>
       </c>
       <c r="C23">
-        <v>0.6037202530442016</v>
+        <v>0.6035441280610598</v>
       </c>
       <c r="D23">
-        <v>0.01966460942825421</v>
+        <v>0.01977293113326084</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.55587583871062</v>
+        <v>3.548649147271249</v>
       </c>
       <c r="G23">
-        <v>2.577036094320576</v>
+        <v>0.8462015701958876</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.727252998374993</v>
       </c>
       <c r="I23">
-        <v>0.4688142653755136</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8014507900605494</v>
+        <v>0.4686751575510257</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8013050161835338</v>
       </c>
       <c r="L23">
-        <v>1.726442394697102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.726581075269976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.54856155893043</v>
+        <v>2.548247564742326</v>
       </c>
       <c r="C24">
-        <v>0.5124273249655573</v>
+        <v>0.5123031200407695</v>
       </c>
       <c r="D24">
-        <v>0.01844035736236904</v>
+        <v>0.01852960066180032</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.056286747163597</v>
+        <v>3.05011424760653</v>
       </c>
       <c r="G24">
-        <v>2.222546079641674</v>
+        <v>0.7236708050580205</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.496513539632588</v>
       </c>
       <c r="I24">
-        <v>0.3938234747036518</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6759639330944722</v>
+        <v>0.3937072919038016</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6758635994082169</v>
       </c>
       <c r="L24">
-        <v>1.447513629279342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.447663105724601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.054460817195093</v>
+        <v>2.054272724206413</v>
       </c>
       <c r="C25">
-        <v>0.4173100472512203</v>
+        <v>0.4172333167543911</v>
       </c>
       <c r="D25">
-        <v>0.01706757754557664</v>
+        <v>0.01713636468138091</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.550271151772563</v>
+        <v>2.545176935706877</v>
       </c>
       <c r="G25">
-        <v>1.864334291564518</v>
+        <v>0.599515830922968</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.263706556915565</v>
       </c>
       <c r="I25">
-        <v>0.3182940270986663</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5453160863945428</v>
+        <v>0.3182008513173145</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5452553300806642</v>
       </c>
       <c r="L25">
-        <v>1.160690648989849</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.160838467807466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.701468808160712</v>
+        <v>2.587816909766957</v>
       </c>
       <c r="C2">
-        <v>0.3491617909035938</v>
+        <v>0.3947245362477929</v>
       </c>
       <c r="D2">
-        <v>0.01606595151197432</v>
+        <v>0.009923705098906055</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.194571534746387</v>
+        <v>2.710756304963553</v>
       </c>
       <c r="G2">
-        <v>0.5132428811253078</v>
+        <v>0.0008388147491726287</v>
       </c>
       <c r="H2">
-        <v>1.102735232924431</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2659368049419015</v>
+        <v>0.09124370089852807</v>
       </c>
       <c r="K2">
-        <v>0.4519052375396626</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1480849883829123</v>
       </c>
       <c r="M2">
-        <v>0.9582330834101356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4267464833187589</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.039884964442948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.467260012903438</v>
+        <v>2.263488339217702</v>
       </c>
       <c r="C3">
-        <v>0.3038365680795607</v>
+        <v>0.3437283584902104</v>
       </c>
       <c r="D3">
-        <v>0.01531303443718457</v>
+        <v>0.008633525314152735</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.967215366125757</v>
+        <v>2.551266748965233</v>
       </c>
       <c r="G3">
-        <v>0.4572468184373122</v>
+        <v>0.000847139133661301</v>
       </c>
       <c r="H3">
-        <v>0.9987346531831918</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2320694152905176</v>
+        <v>0.09256090054245014</v>
       </c>
       <c r="K3">
-        <v>0.3898844912593091</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1374115426209883</v>
       </c>
       <c r="M3">
-        <v>0.8248322639020884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3770384138281244</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.913814430742434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.325318189359365</v>
+        <v>2.067665267385678</v>
       </c>
       <c r="C4">
-        <v>0.2762926707754048</v>
+        <v>0.3126930046420568</v>
       </c>
       <c r="D4">
-        <v>0.01483734302609463</v>
+        <v>0.007868248542788336</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.831823950523571</v>
+        <v>2.45796114164942</v>
       </c>
       <c r="G4">
-        <v>0.4238726813503035</v>
+        <v>0.0008523933505759388</v>
       </c>
       <c r="H4">
-        <v>0.9369796341459846</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2118917681771251</v>
+        <v>0.09339977536495958</v>
       </c>
       <c r="K4">
-        <v>0.3522700638912255</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1310498853560347</v>
       </c>
       <c r="M4">
-        <v>0.7444389167979963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3470831307371398</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.840004600845958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.267871087314518</v>
+        <v>1.988604080678556</v>
       </c>
       <c r="C5">
-        <v>0.2651252956180485</v>
+        <v>0.3001007736635586</v>
       </c>
       <c r="D5">
-        <v>0.01464015729215973</v>
+        <v>0.007562030507529016</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.777594152888341</v>
+        <v>2.421009001104821</v>
       </c>
       <c r="G5">
-        <v>0.4104973784557728</v>
+        <v>0.0008545718930520474</v>
       </c>
       <c r="H5">
-        <v>0.9122873923186887</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2038045789839558</v>
+        <v>0.09374913808680763</v>
       </c>
       <c r="K5">
-        <v>0.3370396310473254</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.128502391202332</v>
       </c>
       <c r="M5">
-        <v>0.7120041355873852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3350036434603467</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.81075773162037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.258353895849922</v>
+        <v>1.975517975174284</v>
       </c>
       <c r="C6">
-        <v>0.2632739925425369</v>
+        <v>0.2980127571745186</v>
       </c>
       <c r="D6">
-        <v>0.01460721415718425</v>
+        <v>0.007511492849095802</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.768643143961043</v>
+        <v>2.414935247453698</v>
       </c>
       <c r="G6">
-        <v>0.4082892170176677</v>
+        <v>0.0008549359380179936</v>
       </c>
       <c r="H6">
-        <v>0.9082143339548878</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2024693386175542</v>
+        <v>0.09380760177622927</v>
       </c>
       <c r="K6">
-        <v>0.3345159932104309</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1280820035667176</v>
       </c>
       <c r="M6">
-        <v>0.7066365522892966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3330051487839256</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.805949472761469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.324541929129964</v>
+        <v>2.066596151886586</v>
       </c>
       <c r="C7">
-        <v>0.2761418516580392</v>
+        <v>0.312522977419377</v>
       </c>
       <c r="D7">
-        <v>0.01483469718032637</v>
+        <v>0.007864097361361289</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.831088913416025</v>
+        <v>2.457458572996174</v>
       </c>
       <c r="G7">
-        <v>0.4236914225191413</v>
+        <v>0.0008524225777874168</v>
       </c>
       <c r="H7">
-        <v>0.9366447785295549</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2117821782723581</v>
+        <v>0.09340445663873176</v>
       </c>
       <c r="K7">
-        <v>0.3520642897882951</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1310153512207108</v>
       </c>
       <c r="M7">
-        <v>0.7440002383603641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3469197247534268</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.83960689476848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.620280738102593</v>
+        <v>2.475240135931756</v>
       </c>
       <c r="C8">
-        <v>0.3334648698615013</v>
+        <v>0.377074467594781</v>
       </c>
       <c r="D8">
-        <v>0.01580914365221453</v>
+        <v>0.009472556761135564</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.115234175729924</v>
+        <v>2.654747736827844</v>
       </c>
       <c r="G8">
-        <v>0.493708394957082</v>
+        <v>0.0008416562189544676</v>
       </c>
       <c r="H8">
-        <v>1.066404968896435</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2541187383909573</v>
+        <v>0.09169158691617874</v>
       </c>
       <c r="K8">
-        <v>0.4304113067991722</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1443628749662551</v>
       </c>
       <c r="M8">
-        <v>0.9118873347334855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4094804902911235</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.995622997186388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.218695573571665</v>
+        <v>3.307679905900159</v>
       </c>
       <c r="C9">
-        <v>0.4489003623436929</v>
+        <v>0.5065877901416229</v>
       </c>
       <c r="D9">
-        <v>0.01761263300007698</v>
+        <v>0.01289713535408055</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.711545408526575</v>
+        <v>3.082841565517185</v>
       </c>
       <c r="G9">
-        <v>0.6404318218537668</v>
+        <v>0.0008216067344718062</v>
       </c>
       <c r="H9">
-        <v>1.340298441608255</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3430405796739322</v>
+        <v>0.08857428013514479</v>
       </c>
       <c r="K9">
-        <v>0.5887385815282613</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1722256104787192</v>
       </c>
       <c r="M9">
-        <v>1.255910671868961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5373860098131189</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.333767293510732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.675417309849138</v>
+        <v>3.945682787451346</v>
       </c>
       <c r="C10">
-        <v>0.5367541872881816</v>
+        <v>0.6046783046310509</v>
       </c>
       <c r="D10">
-        <v>0.01887116857484727</v>
+        <v>0.01566840203366837</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.182475454975702</v>
+        <v>3.429518587139796</v>
       </c>
       <c r="G10">
-        <v>0.7562057203849974</v>
+        <v>0.0008074145032951672</v>
       </c>
       <c r="H10">
-        <v>1.557697687287899</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4135655082456466</v>
+        <v>0.08643545340282532</v>
       </c>
       <c r="K10">
-        <v>0.7094768319367191</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1939836827943751</v>
       </c>
       <c r="M10">
-        <v>1.52207881342332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6356900268061025</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.607486200558682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.888404170425815</v>
+        <v>4.243567840745811</v>
       </c>
       <c r="C11">
-        <v>0.5776964527776727</v>
+        <v>0.6502371557760682</v>
       </c>
       <c r="D11">
-        <v>0.0194291880079156</v>
+        <v>0.01700838418020822</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.406168016606642</v>
+        <v>3.596005099009631</v>
       </c>
       <c r="G11">
-        <v>0.8111848715177672</v>
+        <v>0.0008010471496921804</v>
       </c>
       <c r="H11">
-        <v>1.661229323378507</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4471998165866466</v>
+        <v>0.08549643242892646</v>
       </c>
       <c r="K11">
-        <v>0.7657674500304381</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2042272408582875</v>
       </c>
       <c r="M11">
-        <v>1.647231111054978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6816447112699677</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.738940410245007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.96995315572957</v>
+        <v>4.357651213614645</v>
       </c>
       <c r="C12">
-        <v>0.5933713995633525</v>
+        <v>0.6676523502452198</v>
       </c>
       <c r="D12">
-        <v>0.01963841253821386</v>
+        <v>0.01752955233215658</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.49246091361141</v>
+        <v>3.660482710736289</v>
       </c>
       <c r="G12">
-        <v>0.8323926913168123</v>
+        <v>0.0007986461438296285</v>
       </c>
       <c r="H12">
-        <v>1.701209133506751</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4602012071639123</v>
+        <v>0.0851458440666093</v>
       </c>
       <c r="K12">
-        <v>0.7873188975527441</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2081621433474368</v>
       </c>
       <c r="M12">
-        <v>1.695321153036801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6992520921430128</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.789853965781361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.95234777721771</v>
+        <v>4.333021243642463</v>
       </c>
       <c r="C13">
-        <v>0.589987380473616</v>
+        <v>0.6638939337756824</v>
       </c>
       <c r="D13">
-        <v>0.01959344494960646</v>
+        <v>0.01741665707339024</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.473801773490834</v>
+        <v>3.646529644112036</v>
       </c>
       <c r="G13">
-        <v>0.8278069611573926</v>
+        <v>0.0007991628355425433</v>
       </c>
       <c r="H13">
-        <v>1.692562432203545</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4573886156142279</v>
+        <v>0.0852211251677284</v>
       </c>
       <c r="K13">
-        <v>0.7826662583838484</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.207312099502488</v>
       </c>
       <c r="M13">
-        <v>1.684931112064163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6954504176093721</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.778835987775111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.895094407906583</v>
+        <v>4.25292676749649</v>
       </c>
       <c r="C14">
-        <v>0.57898242243445</v>
+        <v>0.6516664710652265</v>
       </c>
       <c r="D14">
-        <v>0.01944644280047925</v>
+        <v>0.01705097086080087</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.413234214730409</v>
+        <v>3.60127994620612</v>
       </c>
       <c r="G14">
-        <v>0.8129215200290218</v>
+        <v>0.0008008494295847748</v>
       </c>
       <c r="H14">
-        <v>1.664502289341627</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4482638803361141</v>
+        <v>0.08546748839834706</v>
       </c>
       <c r="K14">
-        <v>0.7675355399007202</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2045498094690856</v>
       </c>
       <c r="M14">
-        <v>1.651172825505512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6830889950723531</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.743105511899415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.860146316337364</v>
+        <v>4.204039112308465</v>
       </c>
       <c r="C15">
-        <v>0.5722648176863743</v>
+        <v>0.6441989344948524</v>
       </c>
       <c r="D15">
-        <v>0.01935612830198963</v>
+        <v>0.01682884299430043</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.376348490893747</v>
+        <v>3.573755197018983</v>
       </c>
       <c r="G15">
-        <v>0.8038561275492526</v>
+        <v>0.000801883759772153</v>
       </c>
       <c r="H15">
-        <v>1.647418982133175</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.442710546563994</v>
+        <v>0.08561904773783713</v>
       </c>
       <c r="K15">
-        <v>0.7582994446862585</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2028653016857334</v>
       </c>
       <c r="M15">
-        <v>1.630589356465961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6755448874341496</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.721371693461236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.661615110873299</v>
+        <v>3.926384214375105</v>
       </c>
       <c r="C16">
-        <v>0.5341006840562841</v>
+        <v>0.6017221178701391</v>
       </c>
       <c r="D16">
-        <v>0.01883440872589404</v>
+        <v>0.01558261948648365</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.168065559014678</v>
+        <v>3.418829070631119</v>
       </c>
       <c r="G16">
-        <v>0.7526638459263211</v>
+        <v>0.0008078321964418566</v>
       </c>
       <c r="H16">
-        <v>1.551033834772696</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4114020754274321</v>
+        <v>0.08649751329968502</v>
       </c>
       <c r="K16">
-        <v>0.7058288078998771</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1933217099435538</v>
       </c>
       <c r="M16">
-        <v>1.51399095954217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6327139320974098</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.599046302079401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.541256939126015</v>
+        <v>3.758133670148766</v>
       </c>
       <c r="C17">
-        <v>0.510958845635372</v>
+        <v>0.5759229620302619</v>
       </c>
       <c r="D17">
-        <v>0.01851063465154112</v>
+        <v>0.01483997769133083</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.042865046196084</v>
+        <v>3.32615061779731</v>
       </c>
       <c r="G17">
-        <v>0.7218888341754166</v>
+        <v>0.0008115023545419832</v>
       </c>
       <c r="H17">
-        <v>1.493164321431863</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3926205687512763</v>
+        <v>0.08704519525287857</v>
       </c>
       <c r="K17">
-        <v>0.6740157588455276</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.187559735599713</v>
       </c>
       <c r="M17">
-        <v>1.443579165455603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6067736462288096</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.525872951625246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.472511876962471</v>
+        <v>3.662068857489089</v>
       </c>
       <c r="C18">
-        <v>0.4977381802107459</v>
+        <v>0.5611702657232343</v>
       </c>
       <c r="D18">
-        <v>0.01832304360271664</v>
+        <v>0.01442013695958266</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.971728726676218</v>
+        <v>3.273659642821571</v>
       </c>
       <c r="G18">
-        <v>0.7044018195925048</v>
+        <v>0.0008136218592501175</v>
       </c>
       <c r="H18">
-        <v>1.460308366055799</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3819612085181987</v>
+        <v>0.08736339423182482</v>
       </c>
       <c r="K18">
-        <v>0.6558437009157743</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1842777284841901</v>
       </c>
       <c r="M18">
-        <v>1.403455756824201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5919679461154246</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.484429491254986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.449314633076938</v>
+        <v>3.629659508387135</v>
       </c>
       <c r="C19">
-        <v>0.4932764723045011</v>
+        <v>0.5561892738273855</v>
       </c>
       <c r="D19">
-        <v>0.01825929427665329</v>
+        <v>0.01427917525136024</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.947787242327394</v>
+        <v>3.256022267078322</v>
       </c>
       <c r="G19">
-        <v>0.6985161852884829</v>
+        <v>0.0008143410258003231</v>
       </c>
       <c r="H19">
-        <v>1.449254537983805</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3783755706446996</v>
+        <v>0.08747167496619035</v>
       </c>
       <c r="K19">
-        <v>0.6497114876229304</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1831718389148165</v>
       </c>
       <c r="M19">
-        <v>1.389932008877707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5869738619977269</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.470504135548623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.554018424828882</v>
+        <v>3.775969671840471</v>
       </c>
       <c r="C20">
-        <v>0.5134128216277531</v>
+        <v>0.5786602015010089</v>
       </c>
       <c r="D20">
-        <v>0.01854524223899645</v>
+        <v>0.01491826103884719</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.05610069319934</v>
+        <v>3.33593085931426</v>
       </c>
       <c r="G20">
-        <v>0.7251423626556033</v>
+        <v>0.0008111107951527711</v>
       </c>
       <c r="H20">
-        <v>1.499279487965566</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3946047832283313</v>
+        <v>0.08698656295439555</v>
       </c>
       <c r="K20">
-        <v>0.6773890099166238</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1881697400585693</v>
       </c>
       <c r="M20">
-        <v>1.451034987375039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6095229975900835</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.533594797771585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.911885554989624</v>
+        <v>4.276416148851297</v>
       </c>
       <c r="C21">
-        <v>0.5822099393049882</v>
+        <v>0.6552533039366324</v>
       </c>
       <c r="D21">
-        <v>0.01948967745011387</v>
+        <v>0.01715798832062987</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.43097940398809</v>
+        <v>3.614530533399687</v>
       </c>
       <c r="G21">
-        <v>0.8172827103144016</v>
+        <v>0.0008003537822522214</v>
       </c>
       <c r="H21">
-        <v>1.672722274619616</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4509364857848368</v>
+        <v>0.08539498886118579</v>
       </c>
       <c r="K21">
-        <v>0.7719730719628544</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2053595911995956</v>
       </c>
       <c r="M21">
-        <v>1.661068543958791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.686714034105421</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.753568445900953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.151074229506207</v>
+        <v>4.611052763724615</v>
       </c>
       <c r="C22">
-        <v>0.628187073076333</v>
+        <v>0.7062776451120385</v>
       </c>
       <c r="D22">
-        <v>0.02009477244429192</v>
+        <v>0.01870325107812576</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.685352893577885</v>
+        <v>3.80505773539528</v>
       </c>
       <c r="G22">
-        <v>0.8797974587590289</v>
+        <v>0.0007933813085955938</v>
       </c>
       <c r="H22">
-        <v>1.790653775319669</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4893202179685829</v>
+        <v>0.08438400643373889</v>
       </c>
       <c r="K22">
-        <v>0.8351836015284917</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2169233512549482</v>
       </c>
       <c r="M22">
-        <v>1.802468276517331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7383751414481878</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.904024348852118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.022876424176616</v>
+        <v>4.431693015998917</v>
       </c>
       <c r="C23">
-        <v>0.6035441280610598</v>
+        <v>0.6789462105747646</v>
       </c>
       <c r="D23">
-        <v>0.01977293113326084</v>
+        <v>0.01787019331450423</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.548649147271249</v>
+        <v>3.702535062690117</v>
       </c>
       <c r="G23">
-        <v>0.8462015701958876</v>
+        <v>0.0007970982955498487</v>
       </c>
       <c r="H23">
-        <v>1.727252998374993</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4686751575510257</v>
+        <v>0.08492087096855094</v>
       </c>
       <c r="K23">
-        <v>0.8013050161835338</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2107191891944495</v>
       </c>
       <c r="M23">
-        <v>1.726581075269976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7106816444487052</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.823061130262914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.548247564742326</v>
+        <v>3.767903958507816</v>
       </c>
       <c r="C24">
-        <v>0.5123031200407695</v>
+        <v>0.5774224497462228</v>
       </c>
       <c r="D24">
-        <v>0.01852960066180032</v>
+        <v>0.01488284715145838</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.05011424760653</v>
+        <v>3.331506760600945</v>
       </c>
       <c r="G24">
-        <v>0.7236708050580205</v>
+        <v>0.0008112877894786394</v>
       </c>
       <c r="H24">
-        <v>1.496513539632588</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3937072919038016</v>
+        <v>0.08701306025507627</v>
       </c>
       <c r="K24">
-        <v>0.6758635994082169</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1878938620983917</v>
       </c>
       <c r="M24">
-        <v>1.447663105724601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6082796823743593</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.530101814924961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.054272724206413</v>
+        <v>3.078433465856392</v>
       </c>
       <c r="C25">
-        <v>0.4172333167543911</v>
+        <v>0.4711265205013717</v>
       </c>
       <c r="D25">
-        <v>0.01713636468138091</v>
+        <v>0.01193311821260323</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.545176935706877</v>
+        <v>2.961937789814868</v>
       </c>
       <c r="G25">
-        <v>0.599515830922968</v>
+        <v>0.0008269275219003194</v>
       </c>
       <c r="H25">
-        <v>1.263706556915565</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3182008513173145</v>
+        <v>0.08939133051466808</v>
       </c>
       <c r="K25">
-        <v>0.5452553300806642</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1644822612044337</v>
       </c>
       <c r="M25">
-        <v>1.160838467807466</v>
+        <v>0.5021139370657579</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.238295791919839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.587816909766957</v>
+        <v>1.015967650791566</v>
       </c>
       <c r="C2">
-        <v>0.3947245362477929</v>
+        <v>0.1088930733812674</v>
       </c>
       <c r="D2">
-        <v>0.009923705098906055</v>
+        <v>0.08381884602357559</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.710756304963553</v>
+        <v>0.9280632980233037</v>
       </c>
       <c r="G2">
-        <v>0.0008388147491726287</v>
+        <v>0.0008305854808123689</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09124370089852807</v>
+        <v>0.08986214976277473</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8050777231385382</v>
       </c>
       <c r="L2">
-        <v>0.1480849883829123</v>
+        <v>0.1696427118241317</v>
       </c>
       <c r="M2">
-        <v>0.4267464833187589</v>
+        <v>0.2226926395054889</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.188372686877301</v>
       </c>
       <c r="O2">
-        <v>2.039884964442948</v>
+        <v>2.383272538754426</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.263488339217702</v>
+        <v>0.890654794283563</v>
       </c>
       <c r="C3">
-        <v>0.3437283584902104</v>
+        <v>0.1068750895279962</v>
       </c>
       <c r="D3">
-        <v>0.008633525314152735</v>
+        <v>0.0767714718792547</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.551266748965233</v>
+        <v>0.9132359042178564</v>
       </c>
       <c r="G3">
-        <v>0.000847139133661301</v>
+        <v>0.0008341600143822302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09256090054245014</v>
+        <v>0.09154514768896505</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6995549468505402</v>
       </c>
       <c r="L3">
-        <v>0.1374115426209883</v>
+        <v>0.157010811215244</v>
       </c>
       <c r="M3">
-        <v>0.3770384138281244</v>
+        <v>0.1978658081039022</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.236937066637097</v>
       </c>
       <c r="O3">
-        <v>1.913814430742434</v>
+        <v>2.366411099798029</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.067665267385678</v>
+        <v>0.8141438514228696</v>
       </c>
       <c r="C4">
-        <v>0.3126930046420568</v>
+        <v>0.1056441474406888</v>
       </c>
       <c r="D4">
-        <v>0.007868248542788336</v>
+        <v>0.07249980027046377</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.45796114164942</v>
+        <v>0.9054262283474941</v>
       </c>
       <c r="G4">
-        <v>0.0008523933505759388</v>
+        <v>0.0008364322908460675</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09339977536495958</v>
+        <v>0.09265619726251551</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6349241897714961</v>
       </c>
       <c r="L4">
-        <v>0.1310498853560347</v>
+        <v>0.1493926263986154</v>
       </c>
       <c r="M4">
-        <v>0.3470831307371398</v>
+        <v>0.1827495750487245</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.267976278036723</v>
       </c>
       <c r="O4">
-        <v>1.840004600845958</v>
+        <v>2.359593411233163</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.988604080678556</v>
+        <v>0.7830619447477432</v>
       </c>
       <c r="C5">
-        <v>0.3001007736635586</v>
+        <v>0.105144412470878</v>
       </c>
       <c r="D5">
-        <v>0.007562030507529016</v>
+        <v>0.07077236953104915</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.421009001104821</v>
+        <v>0.9025581402686953</v>
       </c>
       <c r="G5">
-        <v>0.0008545718930520474</v>
+        <v>0.0008373780263049208</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09374913808680763</v>
+        <v>0.09312822698968404</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6086181734953584</v>
       </c>
       <c r="L5">
-        <v>0.128502391202332</v>
+        <v>0.1463212183426421</v>
       </c>
       <c r="M5">
-        <v>0.3350036434603467</v>
+        <v>0.1766191623197706</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.280926483076618</v>
       </c>
       <c r="O5">
-        <v>1.81075773162037</v>
+        <v>2.357674013297796</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.975517975174284</v>
+        <v>0.7779063432371629</v>
       </c>
       <c r="C6">
-        <v>0.2980127571745186</v>
+        <v>0.105061541327764</v>
       </c>
       <c r="D6">
-        <v>0.007511492849095802</v>
+        <v>0.07048631696767416</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.414935247453698</v>
+        <v>0.9021005721694308</v>
       </c>
       <c r="G6">
-        <v>0.0008549359380179936</v>
+        <v>0.0008375362665751231</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09380760177622927</v>
+        <v>0.0932077633460775</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6042517345011476</v>
       </c>
       <c r="L6">
-        <v>0.1280820035667176</v>
+        <v>0.1458131650214014</v>
       </c>
       <c r="M6">
-        <v>0.3330051487839256</v>
+        <v>0.1756029275765876</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.283094909035654</v>
       </c>
       <c r="O6">
-        <v>1.805949472761469</v>
+        <v>2.357406317254146</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.066596151886586</v>
+        <v>0.8137242924554471</v>
       </c>
       <c r="C7">
-        <v>0.312522977419377</v>
+        <v>0.1056374004087743</v>
       </c>
       <c r="D7">
-        <v>0.007864097361361289</v>
+        <v>0.0724764504565556</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.457458572996174</v>
+        <v>0.9053862895083427</v>
       </c>
       <c r="G7">
-        <v>0.0008524225777874168</v>
+        <v>0.0008364449650335613</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09340445663873176</v>
+        <v>0.09266248554766499</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6345693012980718</v>
       </c>
       <c r="L7">
-        <v>0.1310153512207108</v>
+        <v>0.1493510724999041</v>
       </c>
       <c r="M7">
-        <v>0.3469197247534268</v>
+        <v>0.1826667816213003</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.268149715355865</v>
       </c>
       <c r="O7">
-        <v>1.83960689476848</v>
+        <v>2.359564086846589</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.475240135931756</v>
+        <v>0.9726629760723426</v>
       </c>
       <c r="C8">
-        <v>0.377074467594781</v>
+        <v>0.1081954923490471</v>
       </c>
       <c r="D8">
-        <v>0.009472556761135564</v>
+        <v>0.08137701223462557</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.654747736827844</v>
+        <v>0.9226753361490054</v>
       </c>
       <c r="G8">
-        <v>0.0008416562189544676</v>
+        <v>0.0008318020651891027</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09169158691617874</v>
+        <v>0.09042616131286074</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7686546232913258</v>
       </c>
       <c r="L8">
-        <v>0.1443628749662551</v>
+        <v>0.1652576306055806</v>
       </c>
       <c r="M8">
-        <v>0.4094804902911235</v>
+        <v>0.2141043287678315</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.204861040236381</v>
       </c>
       <c r="O8">
-        <v>1.995622997186388</v>
+        <v>2.376706402125421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.307679905900159</v>
+        <v>1.288334355228812</v>
       </c>
       <c r="C9">
-        <v>0.5065877901416229</v>
+        <v>0.1132840637464625</v>
       </c>
       <c r="D9">
-        <v>0.01289713535408055</v>
+        <v>0.09930177670904072</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.082841565517185</v>
+        <v>0.9673764061593886</v>
       </c>
       <c r="G9">
-        <v>0.0008216067344718062</v>
+        <v>0.0008232991369594943</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08857428013514479</v>
+        <v>0.08666957657896113</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.033304941644843</v>
       </c>
       <c r="L9">
-        <v>0.1722256104787192</v>
+        <v>0.1976216978100283</v>
       </c>
       <c r="M9">
-        <v>0.5373860098131189</v>
+        <v>0.2768869701205787</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.09068918294388</v>
       </c>
       <c r="O9">
-        <v>2.333767293510732</v>
+        <v>2.439804836586887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.945682787451346</v>
+        <v>1.523548353805211</v>
       </c>
       <c r="C10">
-        <v>0.6046783046310509</v>
+        <v>0.1170788049183002</v>
       </c>
       <c r="D10">
-        <v>0.01566840203366837</v>
+        <v>0.112804512616961</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.429518587139796</v>
+        <v>1.007575189144674</v>
       </c>
       <c r="G10">
-        <v>0.0008074145032951672</v>
+        <v>0.0008173996674457173</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08643545340282532</v>
+        <v>0.08431105029417196</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.22944306467528</v>
       </c>
       <c r="L10">
-        <v>0.1939836827943751</v>
+        <v>0.2222295645846231</v>
       </c>
       <c r="M10">
-        <v>0.6356900268061025</v>
+        <v>0.3238874475913534</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.013229935562814</v>
       </c>
       <c r="O10">
-        <v>2.607486200558682</v>
+        <v>2.506239338585686</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.243567840745811</v>
+        <v>1.631471053930369</v>
       </c>
       <c r="C11">
-        <v>0.6502371557760682</v>
+        <v>0.118820322277756</v>
       </c>
       <c r="D11">
-        <v>0.01700838418020822</v>
+        <v>0.1190306006473776</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.596005099009631</v>
+        <v>1.0276426556633</v>
       </c>
       <c r="G11">
-        <v>0.0008010471496921804</v>
+        <v>0.0008147868740683554</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08549643242892646</v>
+        <v>0.08332950068796308</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.319197022630846</v>
       </c>
       <c r="L11">
-        <v>0.2042272408582875</v>
+        <v>0.2336319361808989</v>
       </c>
       <c r="M11">
-        <v>0.6816447112699677</v>
+        <v>0.3455023606328211</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.97947231317975</v>
       </c>
       <c r="O11">
-        <v>2.738940410245007</v>
+        <v>2.541317567175412</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.357651213614645</v>
+        <v>1.672488873189678</v>
       </c>
       <c r="C12">
-        <v>0.6676523502452198</v>
+        <v>0.1194822514622658</v>
       </c>
       <c r="D12">
-        <v>0.01752955233215658</v>
+        <v>0.1214012219691654</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.660482710736289</v>
+        <v>1.035513918006174</v>
       </c>
       <c r="G12">
-        <v>0.0007986461438296285</v>
+        <v>0.0008138072908613446</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0851458440666093</v>
+        <v>0.08297132975526011</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.35327426086306</v>
       </c>
       <c r="L12">
-        <v>0.2081621433474368</v>
+        <v>0.2379820259393028</v>
       </c>
       <c r="M12">
-        <v>0.6992520921430128</v>
+        <v>0.3537247995852368</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.9669096862575319</v>
       </c>
       <c r="O12">
-        <v>2.789853965781361</v>
+        <v>2.555343262288318</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.333021243642463</v>
+        <v>1.663648002397196</v>
       </c>
       <c r="C13">
-        <v>0.6638939337756824</v>
+        <v>0.1193395796458034</v>
       </c>
       <c r="D13">
-        <v>0.01741665707339024</v>
+        <v>0.1208900757606131</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.646529644112036</v>
+        <v>1.033806330164154</v>
       </c>
       <c r="G13">
-        <v>0.0007991628355425433</v>
+        <v>0.0008140178307623316</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0852211251677284</v>
+        <v>0.08304786058635472</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.345930923726115</v>
       </c>
       <c r="L13">
-        <v>0.207312099502488</v>
+        <v>0.2370436828359033</v>
       </c>
       <c r="M13">
-        <v>0.6954504176093721</v>
+        <v>0.3519522284873062</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.9696053267744169</v>
       </c>
       <c r="O13">
-        <v>2.778835987775111</v>
+        <v>2.552288832632485</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.25292676749649</v>
+        <v>1.634842509306083</v>
       </c>
       <c r="C14">
-        <v>0.6516664710652265</v>
+        <v>0.1188747288375041</v>
       </c>
       <c r="D14">
-        <v>0.01705097086080087</v>
+        <v>0.1192253683933444</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.60127994620612</v>
+        <v>1.028284679222637</v>
       </c>
       <c r="G14">
-        <v>0.0008008494295847748</v>
+        <v>0.000814706088420141</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08546748839834706</v>
+        <v>0.08329976049713039</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.321998707794023</v>
       </c>
       <c r="L14">
-        <v>0.2045498094690856</v>
+        <v>0.2339891602822064</v>
       </c>
       <c r="M14">
-        <v>0.6830889950723531</v>
+        <v>0.3461780553947875</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9784343086214413</v>
       </c>
       <c r="O14">
-        <v>2.743105511899415</v>
+        <v>2.542456330402814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.204039112308465</v>
+        <v>1.617218354817965</v>
       </c>
       <c r="C15">
-        <v>0.6441989344948524</v>
+        <v>0.1185903219917392</v>
       </c>
       <c r="D15">
-        <v>0.01682884299430043</v>
+        <v>0.1182073998440814</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.573755197018983</v>
+        <v>1.024938444586212</v>
       </c>
       <c r="G15">
-        <v>0.000801883759772153</v>
+        <v>0.0008151289342779307</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08561904773783713</v>
+        <v>0.0834558290265015</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.307351579000908</v>
       </c>
       <c r="L15">
-        <v>0.2028653016857334</v>
+        <v>0.2321224498145824</v>
       </c>
       <c r="M15">
-        <v>0.6755448874341496</v>
+        <v>0.3426461835042574</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9838712956726177</v>
       </c>
       <c r="O15">
-        <v>2.721371693461236</v>
+        <v>2.536531664362826</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.926384214375105</v>
+        <v>1.516515358629391</v>
       </c>
       <c r="C16">
-        <v>0.6017221178701391</v>
+        <v>0.1169653215197215</v>
       </c>
       <c r="D16">
-        <v>0.01558261948648365</v>
+        <v>0.112399382548972</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.418829070631119</v>
+        <v>1.006300918411412</v>
       </c>
       <c r="G16">
-        <v>0.0008078321964418566</v>
+        <v>0.0008175718151338422</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08649751329968502</v>
+        <v>0.08437706747159801</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.22358919887003</v>
       </c>
       <c r="L16">
-        <v>0.1933217099435538</v>
+        <v>0.2214887767260052</v>
       </c>
       <c r="M16">
-        <v>0.6327139320974098</v>
+        <v>0.322479882221657</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.015466506968524</v>
       </c>
       <c r="O16">
-        <v>2.599046302079401</v>
+        <v>2.504048316784008</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.758133670148766</v>
+        <v>1.454985500672393</v>
       </c>
       <c r="C17">
-        <v>0.5759229620302619</v>
+        <v>0.1159725242776517</v>
       </c>
       <c r="D17">
-        <v>0.01483997769133083</v>
+        <v>0.1088584018602887</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.32615061779731</v>
+        <v>0.9953346307921151</v>
       </c>
       <c r="G17">
-        <v>0.0008115023545419832</v>
+        <v>0.0008190883461770892</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08704519525287857</v>
+        <v>0.08496588181552056</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.172348471646472</v>
       </c>
       <c r="L17">
-        <v>0.187559735599713</v>
+        <v>0.2150202815747235</v>
       </c>
       <c r="M17">
-        <v>0.6067736462288096</v>
+        <v>0.3101710187131701</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.035233467777648</v>
       </c>
       <c r="O17">
-        <v>2.525872951625246</v>
+        <v>2.485395164641375</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.662068857489089</v>
+        <v>1.419680906687091</v>
       </c>
       <c r="C18">
-        <v>0.5611702657232343</v>
+        <v>0.1154029141009403</v>
       </c>
       <c r="D18">
-        <v>0.01442013695958266</v>
+        <v>0.1068295368568357</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.273659642821571</v>
+        <v>0.9891937129433543</v>
       </c>
       <c r="G18">
-        <v>0.0008136218592501175</v>
+        <v>0.0008199673120302365</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08736339423182482</v>
+        <v>0.08531312681600056</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.142925180637917</v>
       </c>
       <c r="L18">
-        <v>0.1842777284841901</v>
+        <v>0.2113192163035507</v>
       </c>
       <c r="M18">
-        <v>0.5919679461154246</v>
+        <v>0.3031130926512233</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.046741602900429</v>
       </c>
       <c r="O18">
-        <v>2.484429491254986</v>
+        <v>2.47512072207175</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.629659508387135</v>
+        <v>1.407741601674559</v>
       </c>
       <c r="C19">
-        <v>0.5561892738273855</v>
+        <v>0.1152102903562877</v>
       </c>
       <c r="D19">
-        <v>0.01427917525136024</v>
+        <v>0.1061439131155169</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.256022267078322</v>
+        <v>0.9871426443384692</v>
       </c>
       <c r="G19">
-        <v>0.0008143410258003231</v>
+        <v>0.0008202660759330861</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08747167496619035</v>
+        <v>0.08543215936919957</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.132970991926896</v>
       </c>
       <c r="L19">
-        <v>0.1831718389148165</v>
+        <v>0.2100693697748</v>
       </c>
       <c r="M19">
-        <v>0.5869738619977269</v>
+        <v>0.3007270375866966</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.050661646920414</v>
       </c>
       <c r="O19">
-        <v>2.470504135548623</v>
+        <v>2.471718715695744</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.775969671840471</v>
+        <v>1.461526463347042</v>
       </c>
       <c r="C20">
-        <v>0.5786602015010089</v>
+        <v>0.1160780604195395</v>
       </c>
       <c r="D20">
-        <v>0.01491826103884719</v>
+        <v>0.1092345302121203</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.33593085931426</v>
+        <v>0.9964846551242914</v>
       </c>
       <c r="G20">
-        <v>0.0008111107951527711</v>
+        <v>0.000818926218333316</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08698656295439555</v>
+        <v>0.08490231138106274</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.177797968497316</v>
       </c>
       <c r="L20">
-        <v>0.1881697400585693</v>
+        <v>0.2157068353369311</v>
       </c>
       <c r="M20">
-        <v>0.6095229975900835</v>
+        <v>0.311479035528798</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.03311482971727</v>
       </c>
       <c r="O20">
-        <v>2.533594797771585</v>
+        <v>2.487333491045717</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.276416148851297</v>
+        <v>1.643299171937315</v>
       </c>
       <c r="C21">
-        <v>0.6552533039366324</v>
+        <v>0.1190111980021697</v>
       </c>
       <c r="D21">
-        <v>0.01715798832062987</v>
+        <v>0.1197139746515603</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.614530533399687</v>
+        <v>1.029899002797919</v>
       </c>
       <c r="G21">
-        <v>0.0008003537822522214</v>
+        <v>0.0008145036669197765</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08539498886118579</v>
+        <v>0.08322540126995293</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.329025644847434</v>
       </c>
       <c r="L21">
-        <v>0.2053595911995956</v>
+        <v>0.2348854527814979</v>
       </c>
       <c r="M21">
-        <v>0.686714034105421</v>
+        <v>0.3478730261439793</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.9758349681293748</v>
       </c>
       <c r="O21">
-        <v>2.753568445900953</v>
+        <v>2.545323863810353</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.611052763724615</v>
+        <v>1.762980303330238</v>
       </c>
       <c r="C22">
-        <v>0.7062776451120385</v>
+        <v>0.1209426158526767</v>
       </c>
       <c r="D22">
-        <v>0.01870325107812576</v>
+        <v>0.126638767621202</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.80505773539528</v>
+        <v>1.053331703988192</v>
       </c>
       <c r="G22">
-        <v>0.0007933813085955938</v>
+        <v>0.0008116703539161649</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08438400643373889</v>
+        <v>0.08220844678364259</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.428389331701936</v>
       </c>
       <c r="L22">
-        <v>0.2169233512549482</v>
+        <v>0.2476090093011578</v>
       </c>
       <c r="M22">
-        <v>0.7383751414481878</v>
+        <v>0.3718781319933342</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.9396894659948938</v>
       </c>
       <c r="O22">
-        <v>2.904024348852118</v>
+        <v>2.587573264495916</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.431693015998917</v>
+        <v>1.699017539853259</v>
       </c>
       <c r="C23">
-        <v>0.6789462105747646</v>
+        <v>0.1199103687107481</v>
       </c>
       <c r="D23">
-        <v>0.01787019331450423</v>
+        <v>0.1229356171160561</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.702535062690117</v>
+        <v>1.040673755028763</v>
       </c>
       <c r="G23">
-        <v>0.0007970982955498487</v>
+        <v>0.0008131774515464908</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08492087096855094</v>
+        <v>0.08274385289432473</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.37530418319966</v>
       </c>
       <c r="L23">
-        <v>0.2107191891944495</v>
+        <v>0.2408000845106386</v>
       </c>
       <c r="M23">
-        <v>0.7106816444487052</v>
+        <v>0.3590447919057738</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9588601788296405</v>
       </c>
       <c r="O23">
-        <v>2.823061130262914</v>
+        <v>2.564610734366994</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.767903958507816</v>
+        <v>1.458569078177618</v>
       </c>
       <c r="C24">
-        <v>0.5774224497462228</v>
+        <v>0.1160303439286636</v>
       </c>
       <c r="D24">
-        <v>0.01488284715145838</v>
+        <v>0.1090644611853406</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.331506760600945</v>
+        <v>0.9959642202914125</v>
       </c>
       <c r="G24">
-        <v>0.0008112877894786394</v>
+        <v>0.0008189994942410134</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08701306025507627</v>
+        <v>0.08493102441816092</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.17533414080421</v>
       </c>
       <c r="L24">
-        <v>0.1878938620983917</v>
+        <v>0.2153963892408512</v>
       </c>
       <c r="M24">
-        <v>0.6082796823743593</v>
+        <v>0.3108876234550806</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.034072218533668</v>
       </c>
       <c r="O24">
-        <v>2.530101814924961</v>
+        <v>2.486455776864972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.078433465856392</v>
+        <v>1.202424140488404</v>
       </c>
       <c r="C25">
-        <v>0.4711265205013717</v>
+        <v>0.111898548418651</v>
       </c>
       <c r="D25">
-        <v>0.01193311821260323</v>
+        <v>0.09439761570851601</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.961937789814868</v>
+        <v>0.9540503905574909</v>
       </c>
       <c r="G25">
-        <v>0.0008269275219003194</v>
+        <v>0.0008255369115160114</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08939133051466808</v>
+        <v>0.08761670527632681</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9614615952675649</v>
       </c>
       <c r="L25">
-        <v>0.1644822612044337</v>
+        <v>0.1887293963519809</v>
       </c>
       <c r="M25">
-        <v>0.5021139370657579</v>
+        <v>0.2597630006081282</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.120475537610439</v>
       </c>
       <c r="O25">
-        <v>2.238295791919839</v>
+        <v>2.41936912436978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.015967650791566</v>
+        <v>0.8070710853421019</v>
       </c>
       <c r="C2">
-        <v>0.1088930733812674</v>
+        <v>0.1558612813855618</v>
       </c>
       <c r="D2">
-        <v>0.08381884602357559</v>
+        <v>0.1434369537791085</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9280632980233037</v>
+        <v>2.01944559355163</v>
       </c>
       <c r="G2">
-        <v>0.0008305854808123689</v>
+        <v>0.002515851339151515</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08986214976277473</v>
+        <v>0.2383690032694119</v>
       </c>
       <c r="K2">
-        <v>0.8050777231385382</v>
+        <v>0.3802870271782979</v>
       </c>
       <c r="L2">
-        <v>0.1696427118241317</v>
+        <v>0.3084297752315166</v>
       </c>
       <c r="M2">
-        <v>0.2226926395054889</v>
+        <v>0.2449838662812631</v>
       </c>
       <c r="N2">
-        <v>1.188372686877301</v>
+        <v>2.524859982403882</v>
       </c>
       <c r="O2">
-        <v>2.383272538754426</v>
+        <v>5.259120794124755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.890654794283563</v>
+        <v>0.7750478471484996</v>
       </c>
       <c r="C3">
-        <v>0.1068750895279962</v>
+        <v>0.1551571922457455</v>
       </c>
       <c r="D3">
-        <v>0.0767714718792547</v>
+        <v>0.1421654971644344</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9132359042178564</v>
+        <v>2.026840617455591</v>
       </c>
       <c r="G3">
-        <v>0.0008341600143822302</v>
+        <v>0.002518261474892289</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09154514768896505</v>
+        <v>0.2397036272473088</v>
       </c>
       <c r="K3">
-        <v>0.6995549468505402</v>
+        <v>0.3505862734810279</v>
       </c>
       <c r="L3">
-        <v>0.157010811215244</v>
+        <v>0.3064982543490373</v>
       </c>
       <c r="M3">
-        <v>0.1978658081039022</v>
+        <v>0.2392293765846993</v>
       </c>
       <c r="N3">
-        <v>1.236937066637097</v>
+        <v>2.546200127696054</v>
       </c>
       <c r="O3">
-        <v>2.366411099798029</v>
+        <v>5.284425909537447</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8141438514228696</v>
+        <v>0.7556998502377041</v>
       </c>
       <c r="C4">
-        <v>0.1056441474406888</v>
+        <v>0.1547247576522643</v>
       </c>
       <c r="D4">
-        <v>0.07249980027046377</v>
+        <v>0.1414334756560578</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9054262283474941</v>
+        <v>2.032177260091899</v>
       </c>
       <c r="G4">
-        <v>0.0008364322908460675</v>
+        <v>0.002519821937518898</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09265619726251551</v>
+        <v>0.2405790339290128</v>
       </c>
       <c r="K4">
-        <v>0.6349241897714961</v>
+        <v>0.3324517332338957</v>
       </c>
       <c r="L4">
-        <v>0.1493926263986154</v>
+        <v>0.3054202363314857</v>
       </c>
       <c r="M4">
-        <v>0.1827495750487245</v>
+        <v>0.2357926733530036</v>
       </c>
       <c r="N4">
-        <v>1.267976278036723</v>
+        <v>2.559972868366446</v>
       </c>
       <c r="O4">
-        <v>2.359593411233163</v>
+        <v>5.30206293338189</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7830619447477432</v>
+        <v>0.7478951164171974</v>
       </c>
       <c r="C5">
-        <v>0.105144412470878</v>
+        <v>0.1545485215197822</v>
       </c>
       <c r="D5">
-        <v>0.07077236953104915</v>
+        <v>0.1411474693906669</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9025581402686953</v>
+        <v>2.034552446216409</v>
       </c>
       <c r="G5">
-        <v>0.0008373780263049208</v>
+        <v>0.002520478172698966</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09312822698968404</v>
+        <v>0.2409498608772687</v>
       </c>
       <c r="K5">
-        <v>0.6086181734953584</v>
+        <v>0.3250878530402872</v>
       </c>
       <c r="L5">
-        <v>0.1463212183426421</v>
+        <v>0.3050081863469742</v>
       </c>
       <c r="M5">
-        <v>0.1766191623197706</v>
+        <v>0.2344166245605273</v>
       </c>
       <c r="N5">
-        <v>1.280926483076618</v>
+        <v>2.565753886708499</v>
       </c>
       <c r="O5">
-        <v>2.357674013297796</v>
+        <v>5.309778697457276</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7779063432371629</v>
+        <v>0.7466039817411172</v>
       </c>
       <c r="C6">
-        <v>0.105061541327764</v>
+        <v>0.1545192571458216</v>
       </c>
       <c r="D6">
-        <v>0.07048631696767416</v>
+        <v>0.1411007229165264</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9021005721694308</v>
+        <v>2.034958959741516</v>
       </c>
       <c r="G6">
-        <v>0.0008375362665751231</v>
+        <v>0.002520588369785156</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0932077633460775</v>
+        <v>0.2410122882297738</v>
       </c>
       <c r="K6">
-        <v>0.6042517345011476</v>
+        <v>0.3238666764635099</v>
       </c>
       <c r="L6">
-        <v>0.1458131650214014</v>
+        <v>0.304941414831994</v>
       </c>
       <c r="M6">
-        <v>0.1756029275765876</v>
+        <v>0.2341896129941716</v>
       </c>
       <c r="N6">
-        <v>1.283094909035654</v>
+        <v>2.566724000858432</v>
       </c>
       <c r="O6">
-        <v>2.357406317254146</v>
+        <v>5.311091833334018</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8137242924554471</v>
+        <v>0.7555942691434439</v>
       </c>
       <c r="C7">
-        <v>0.1056374004087743</v>
+        <v>0.1547223809133627</v>
       </c>
       <c r="D7">
-        <v>0.0724764504565556</v>
+        <v>0.1414295685960667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9053862895083427</v>
+        <v>2.032208480648407</v>
       </c>
       <c r="G7">
-        <v>0.0008364449650335613</v>
+        <v>0.002519830705299556</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09266248554766499</v>
+        <v>0.2405839779417764</v>
       </c>
       <c r="K7">
-        <v>0.6345693012980718</v>
+        <v>0.3323523150839947</v>
       </c>
       <c r="L7">
-        <v>0.1493510724999041</v>
+        <v>0.3054145687989873</v>
       </c>
       <c r="M7">
-        <v>0.1826667816213003</v>
+        <v>0.2357740163386737</v>
       </c>
       <c r="N7">
-        <v>1.268149715355865</v>
+        <v>2.560050150776874</v>
       </c>
       <c r="O7">
-        <v>2.359564086846589</v>
+        <v>5.302164850097753</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9726629760723426</v>
+        <v>0.795964611501546</v>
       </c>
       <c r="C8">
-        <v>0.1081954923490471</v>
+        <v>0.1556185452770009</v>
       </c>
       <c r="D8">
-        <v>0.08137701223462557</v>
+        <v>0.1429884937014805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9226753361490054</v>
+        <v>2.021830341591595</v>
       </c>
       <c r="G8">
-        <v>0.0008318020651891027</v>
+        <v>0.002516665654880452</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09042616131286074</v>
+        <v>0.2388175855877464</v>
       </c>
       <c r="K8">
-        <v>0.7686546232913258</v>
+        <v>0.370025350151451</v>
       </c>
       <c r="L8">
-        <v>0.1652576306055806</v>
+        <v>0.3077414466239148</v>
       </c>
       <c r="M8">
-        <v>0.2141043287678315</v>
+        <v>0.2429797618643867</v>
       </c>
       <c r="N8">
-        <v>1.204861040236381</v>
+        <v>2.532079100547634</v>
       </c>
       <c r="O8">
-        <v>2.376706402125421</v>
+        <v>5.267410572116631</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.288334355228812</v>
+        <v>0.8776003297137436</v>
       </c>
       <c r="C9">
-        <v>0.1132840637464625</v>
+        <v>0.1573743917359991</v>
       </c>
       <c r="D9">
-        <v>0.09930177670904072</v>
+        <v>0.1464291137432028</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9673764061593886</v>
+        <v>2.007783825456748</v>
       </c>
       <c r="G9">
-        <v>0.0008232991369594943</v>
+        <v>0.002511096066696195</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08666957657896113</v>
+        <v>0.2357964655439169</v>
       </c>
       <c r="K9">
-        <v>1.033304941644843</v>
+        <v>0.4446927042972391</v>
       </c>
       <c r="L9">
-        <v>0.1976216978100283</v>
+        <v>0.3131566715099723</v>
       </c>
       <c r="M9">
-        <v>0.2768869701205787</v>
+        <v>0.2578707889298144</v>
       </c>
       <c r="N9">
-        <v>1.09068918294388</v>
+        <v>2.482537856730847</v>
       </c>
       <c r="O9">
-        <v>2.439804836586887</v>
+        <v>5.215893359050568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523548353805211</v>
+        <v>0.9390566953217387</v>
       </c>
       <c r="C10">
-        <v>0.1170788049183002</v>
+        <v>0.1586628417522746</v>
       </c>
       <c r="D10">
-        <v>0.112804512616961</v>
+        <v>0.1491877880002619</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.007575189144674</v>
+        <v>2.001293577559693</v>
       </c>
       <c r="G10">
-        <v>0.0008173996674457173</v>
+        <v>0.002507388692851829</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08431105029417196</v>
+        <v>0.2338452426756419</v>
       </c>
       <c r="K10">
-        <v>1.22944306467528</v>
+        <v>0.500014976272297</v>
       </c>
       <c r="L10">
-        <v>0.2222295645846231</v>
+        <v>0.317649753015715</v>
       </c>
       <c r="M10">
-        <v>0.3238874475913534</v>
+        <v>0.2692685612427539</v>
       </c>
       <c r="N10">
-        <v>1.013229935562814</v>
+        <v>2.449369321575446</v>
       </c>
       <c r="O10">
-        <v>2.506239338585686</v>
+        <v>5.188156704787616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.631471053930369</v>
+        <v>0.9673305367142859</v>
       </c>
       <c r="C11">
-        <v>0.118820322277756</v>
+        <v>0.1592485229331331</v>
       </c>
       <c r="D11">
-        <v>0.1190306006473776</v>
+        <v>0.1504922979969336</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.0276426556633</v>
+        <v>1.999169740214327</v>
       </c>
       <c r="G11">
-        <v>0.0008147868740683554</v>
+        <v>0.002505784824172299</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08332950068796308</v>
+        <v>0.2330155363563975</v>
       </c>
       <c r="K11">
-        <v>1.319197022630846</v>
+        <v>0.5252798422566798</v>
       </c>
       <c r="L11">
-        <v>0.2336319361808989</v>
+        <v>0.31980447340095</v>
       </c>
       <c r="M11">
-        <v>0.3455023606328211</v>
+        <v>0.2745517452569715</v>
       </c>
       <c r="N11">
-        <v>0.97947231317975</v>
+        <v>2.434979700460545</v>
       </c>
       <c r="O11">
-        <v>2.541317567175412</v>
+        <v>5.177728731231667</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.672488873189678</v>
+        <v>0.9780820965864621</v>
       </c>
       <c r="C12">
-        <v>0.1194822514622658</v>
+        <v>0.1594702283079386</v>
       </c>
       <c r="D12">
-        <v>0.1214012219691654</v>
+        <v>0.150993351960139</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.035513918006174</v>
+        <v>1.998484395706143</v>
       </c>
       <c r="G12">
-        <v>0.0008138072908613446</v>
+        <v>0.00250518930301101</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08297132975526011</v>
+        <v>0.2327096517332699</v>
       </c>
       <c r="K12">
-        <v>1.35327426086306</v>
+        <v>0.5348607320602525</v>
       </c>
       <c r="L12">
-        <v>0.2379820259393028</v>
+        <v>0.3206362425561906</v>
       </c>
       <c r="M12">
-        <v>0.3537247995852368</v>
+        <v>0.276566346785728</v>
       </c>
       <c r="N12">
-        <v>0.9669096862575319</v>
+        <v>2.429631144033989</v>
       </c>
       <c r="O12">
-        <v>2.555343262288318</v>
+        <v>5.174094278155735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.663648002397196</v>
+        <v>0.9757645716596812</v>
       </c>
       <c r="C13">
-        <v>0.1193395796458034</v>
+        <v>0.1594224838728593</v>
       </c>
       <c r="D13">
-        <v>0.1208900757606131</v>
+        <v>0.1508851278629351</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.033806330164154</v>
+        <v>1.998626712424738</v>
       </c>
       <c r="G13">
-        <v>0.0008140178307623316</v>
+        <v>0.002505317033830421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08304786058635472</v>
+        <v>0.2327751603283481</v>
       </c>
       <c r="K13">
-        <v>1.345930923726115</v>
+        <v>0.5327967180968187</v>
       </c>
       <c r="L13">
-        <v>0.2370436828359033</v>
+        <v>0.3204564041736973</v>
       </c>
       <c r="M13">
-        <v>0.3519522284873062</v>
+        <v>0.2761318473046828</v>
       </c>
       <c r="N13">
-        <v>0.9696053267744169</v>
+        <v>2.430778582766235</v>
       </c>
       <c r="O13">
-        <v>2.552288832632485</v>
+        <v>5.174863047249517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.634842509306083</v>
+        <v>0.9682141788796343</v>
       </c>
       <c r="C14">
-        <v>0.1188747288375041</v>
+        <v>0.1592667644477572</v>
       </c>
       <c r="D14">
-        <v>0.1192253683933444</v>
+        <v>0.1505333787971637</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.028284679222637</v>
+        <v>1.999110974853579</v>
       </c>
       <c r="G14">
-        <v>0.000814706088420141</v>
+        <v>0.00250573559350562</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08329976049713039</v>
+        <v>0.232990204675751</v>
       </c>
       <c r="K14">
-        <v>1.321998707794023</v>
+        <v>0.5260677976259842</v>
       </c>
       <c r="L14">
-        <v>0.2339891602822064</v>
+        <v>0.3198725870504404</v>
       </c>
       <c r="M14">
-        <v>0.3461780553947875</v>
+        <v>0.274717208575602</v>
       </c>
       <c r="N14">
-        <v>0.9784343086214413</v>
+        <v>2.434537657834696</v>
       </c>
       <c r="O14">
-        <v>2.542456330402814</v>
+        <v>5.177423424310291</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.617218354817965</v>
+        <v>0.9635951673053285</v>
       </c>
       <c r="C15">
-        <v>0.1185903219917392</v>
+        <v>0.1591713709965958</v>
       </c>
       <c r="D15">
-        <v>0.1182073998440814</v>
+        <v>0.1503188404094118</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.024938444586212</v>
+        <v>1.999423077418015</v>
       </c>
       <c r="G15">
-        <v>0.0008151289342779307</v>
+        <v>0.002505993512385249</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0834558290265015</v>
+        <v>0.2331230067664265</v>
       </c>
       <c r="K15">
-        <v>1.307351579000908</v>
+        <v>0.5219478993030293</v>
       </c>
       <c r="L15">
-        <v>0.2321224498145824</v>
+        <v>0.3195170396364944</v>
       </c>
       <c r="M15">
-        <v>0.3426461835042574</v>
+        <v>0.273852516691484</v>
       </c>
       <c r="N15">
-        <v>0.9838712956726177</v>
+        <v>2.436853284819776</v>
       </c>
       <c r="O15">
-        <v>2.536531664362826</v>
+        <v>5.179032658869659</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.516515358629391</v>
+        <v>0.9372152513352319</v>
       </c>
       <c r="C16">
-        <v>0.1169653215197215</v>
+        <v>0.1586245558689896</v>
       </c>
       <c r="D16">
-        <v>0.112399382548972</v>
+        <v>0.1491035272683803</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.006300918411412</v>
+        <v>2.001449027988031</v>
       </c>
       <c r="G16">
-        <v>0.0008175718151338422</v>
+        <v>0.002507495167754541</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08437706747159801</v>
+        <v>0.2339006295365333</v>
       </c>
       <c r="K16">
-        <v>1.22358919887003</v>
+        <v>0.4983657944709989</v>
       </c>
       <c r="L16">
-        <v>0.2214887767260052</v>
+        <v>0.3175111571420075</v>
       </c>
       <c r="M16">
-        <v>0.322479882221657</v>
+        <v>0.2689252568720875</v>
       </c>
       <c r="N16">
-        <v>1.015466506968524</v>
+        <v>2.450323779114392</v>
       </c>
       <c r="O16">
-        <v>2.504048316784008</v>
+        <v>5.188882217488754</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.454985500672393</v>
+        <v>0.9211127154293308</v>
       </c>
       <c r="C17">
-        <v>0.1159725242776517</v>
+        <v>0.1582889781412788</v>
       </c>
       <c r="D17">
-        <v>0.1088584018602887</v>
+        <v>0.1483706235090239</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9953346307921151</v>
+        <v>2.002903934272481</v>
       </c>
       <c r="G17">
-        <v>0.0008190883461770892</v>
+        <v>0.002508437510977045</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08496588181552056</v>
+        <v>0.2343924943423037</v>
       </c>
       <c r="K17">
-        <v>1.172348471646472</v>
+        <v>0.4839237856963052</v>
       </c>
       <c r="L17">
-        <v>0.2150202815747235</v>
+        <v>0.3163089129844394</v>
       </c>
       <c r="M17">
-        <v>0.3101710187131701</v>
+        <v>0.2659276019643571</v>
       </c>
       <c r="N17">
-        <v>1.035233467777648</v>
+        <v>2.458766482676479</v>
       </c>
       <c r="O17">
-        <v>2.485395164641375</v>
+        <v>5.195485073900528</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.419680906687091</v>
+        <v>0.9118808462821164</v>
       </c>
       <c r="C18">
-        <v>0.1154029141009403</v>
+        <v>0.1580959221309968</v>
       </c>
       <c r="D18">
-        <v>0.1068295368568357</v>
+        <v>0.1479537467630649</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9891937129433543</v>
+        <v>2.003818765186722</v>
       </c>
       <c r="G18">
-        <v>0.0008199673120302365</v>
+        <v>0.00250898730296276</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08531312681600056</v>
+        <v>0.2346808544209171</v>
       </c>
       <c r="K18">
-        <v>1.142925180637917</v>
+        <v>0.475626425941158</v>
       </c>
       <c r="L18">
-        <v>0.2113192163035507</v>
+        <v>0.3156278490064608</v>
       </c>
       <c r="M18">
-        <v>0.3031130926512233</v>
+        <v>0.2642126902055892</v>
       </c>
       <c r="N18">
-        <v>1.046741602900429</v>
+        <v>2.463688288478298</v>
       </c>
       <c r="O18">
-        <v>2.47512072207175</v>
+        <v>5.199488982509934</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.407741601674559</v>
+        <v>0.908760248457213</v>
       </c>
       <c r="C19">
-        <v>0.1152102903562877</v>
+        <v>0.1580305501995554</v>
       </c>
       <c r="D19">
-        <v>0.1061439131155169</v>
+        <v>0.147813403522008</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9871426443384692</v>
+        <v>2.004141916558808</v>
       </c>
       <c r="G19">
-        <v>0.0008202660759330861</v>
+        <v>0.002509174791326731</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08543215936919957</v>
+        <v>0.2347794252928086</v>
       </c>
       <c r="K19">
-        <v>1.132970991926896</v>
+        <v>0.4728186961823155</v>
       </c>
       <c r="L19">
-        <v>0.2100693697748</v>
+        <v>0.3153990479967703</v>
       </c>
       <c r="M19">
-        <v>0.3007270375866966</v>
+        <v>0.263633645793</v>
       </c>
       <c r="N19">
-        <v>1.050661646920414</v>
+        <v>2.465366026882759</v>
       </c>
       <c r="O19">
-        <v>2.471718715695744</v>
+        <v>5.200880052663962</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.461526463347042</v>
+        <v>0.9228237702313038</v>
       </c>
       <c r="C20">
-        <v>0.1160780604195395</v>
+        <v>0.1583247052778631</v>
       </c>
       <c r="D20">
-        <v>0.1092345302121203</v>
+        <v>0.1484481594942082</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9964846551242914</v>
+        <v>2.002740985337013</v>
       </c>
       <c r="G20">
-        <v>0.000818926218333316</v>
+        <v>0.002508336392134736</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08490231138106274</v>
+        <v>0.2343395703381077</v>
       </c>
       <c r="K20">
-        <v>1.177797968497316</v>
+        <v>0.4854602033219919</v>
       </c>
       <c r="L20">
-        <v>0.2157068353369311</v>
+        <v>0.3164358147268445</v>
       </c>
       <c r="M20">
-        <v>0.311479035528798</v>
+        <v>0.2662457502110698</v>
       </c>
       <c r="N20">
-        <v>1.03311482971727</v>
+        <v>2.457860934029377</v>
       </c>
       <c r="O20">
-        <v>2.487333491045717</v>
+        <v>5.194760859249016</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.643299171937315</v>
+        <v>0.9704307002437531</v>
       </c>
       <c r="C21">
-        <v>0.1190111980021697</v>
+        <v>0.1593125052985158</v>
       </c>
       <c r="D21">
-        <v>0.1197139746515603</v>
+        <v>0.1506365048147558</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.029899002797919</v>
+        <v>1.998965510110267</v>
       </c>
       <c r="G21">
-        <v>0.0008145036669197765</v>
+        <v>0.002505612331651365</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08322540126995293</v>
+        <v>0.2329268156507958</v>
       </c>
       <c r="K21">
-        <v>1.329025644847434</v>
+        <v>0.5280438788920208</v>
       </c>
       <c r="L21">
-        <v>0.2348854527814979</v>
+        <v>0.3200436397191453</v>
       </c>
       <c r="M21">
-        <v>0.3478730261439793</v>
+        <v>0.2751323442613227</v>
       </c>
       <c r="N21">
-        <v>0.9758349681293748</v>
+        <v>2.43343079950599</v>
       </c>
       <c r="O21">
-        <v>2.545323863810353</v>
+        <v>5.176662850619863</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.762980303330238</v>
+        <v>1.0018057822966</v>
       </c>
       <c r="C22">
-        <v>0.1209426158526767</v>
+        <v>0.1599576196979129</v>
       </c>
       <c r="D22">
-        <v>0.126638767621202</v>
+        <v>0.152107861445387</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.053331703988192</v>
+        <v>1.997190983391789</v>
       </c>
       <c r="G22">
-        <v>0.0008116703539161649</v>
+        <v>0.002503900925642864</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08220844678364259</v>
+        <v>0.2320519096421307</v>
       </c>
       <c r="K22">
-        <v>1.428389331701936</v>
+        <v>0.5559539924161925</v>
       </c>
       <c r="L22">
-        <v>0.2476090093011578</v>
+        <v>0.3224937417764693</v>
       </c>
       <c r="M22">
-        <v>0.3718781319933342</v>
+        <v>0.2810216272547734</v>
       </c>
       <c r="N22">
-        <v>0.9396894659948938</v>
+        <v>2.418049965169027</v>
       </c>
       <c r="O22">
-        <v>2.587573264495916</v>
+        <v>5.166667071770689</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.699017539853259</v>
+        <v>0.9850366483290429</v>
       </c>
       <c r="C23">
-        <v>0.1199103687107481</v>
+        <v>0.1596133582582979</v>
       </c>
       <c r="D23">
-        <v>0.1229356171160561</v>
+        <v>0.1513188271240153</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.040673755028763</v>
+        <v>1.998074756698969</v>
       </c>
       <c r="G23">
-        <v>0.0008131774515464908</v>
+        <v>0.002504808046248622</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08274385289432473</v>
+        <v>0.2325144407196227</v>
       </c>
       <c r="K23">
-        <v>1.37530418319966</v>
+        <v>0.5410507658556298</v>
       </c>
       <c r="L23">
-        <v>0.2408000845106386</v>
+        <v>0.3211776776961699</v>
       </c>
       <c r="M23">
-        <v>0.3590447919057738</v>
+        <v>0.2778710120815546</v>
       </c>
       <c r="N23">
-        <v>0.9588601788296405</v>
+        <v>2.426205423495233</v>
       </c>
       <c r="O23">
-        <v>2.564610734366994</v>
+        <v>5.171834502718923</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.458569078177618</v>
+        <v>0.92205012226907</v>
       </c>
       <c r="C24">
-        <v>0.1160303439286636</v>
+        <v>0.158308553438161</v>
       </c>
       <c r="D24">
-        <v>0.1090644611853406</v>
+        <v>0.1484130915182504</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9959642202914125</v>
+        <v>2.002814410365588</v>
       </c>
       <c r="G24">
-        <v>0.0008189994942410134</v>
+        <v>0.002508382083013897</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08493102441816092</v>
+        <v>0.2343634798962899</v>
       </c>
       <c r="K24">
-        <v>1.17533414080421</v>
+        <v>0.4847655716066299</v>
       </c>
       <c r="L24">
-        <v>0.2153963892408512</v>
+        <v>0.3163784109119661</v>
       </c>
       <c r="M24">
-        <v>0.3108876234550806</v>
+        <v>0.2661018889628366</v>
       </c>
       <c r="N24">
-        <v>1.034072218533668</v>
+        <v>2.458270120805663</v>
       </c>
       <c r="O24">
-        <v>2.486455776864972</v>
+        <v>5.19508762925264</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.202424140488404</v>
+        <v>0.8552541002107432</v>
       </c>
       <c r="C25">
-        <v>0.111898548418651</v>
+        <v>0.1568996186500158</v>
       </c>
       <c r="D25">
-        <v>0.09439761570851601</v>
+        <v>0.1454575795724082</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9540503905574909</v>
+        <v>2.010910233654243</v>
       </c>
       <c r="G25">
-        <v>0.0008255369115160114</v>
+        <v>0.002512534977040972</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08761670527632681</v>
+        <v>0.2365665157960155</v>
       </c>
       <c r="K25">
-        <v>0.9614615952675649</v>
+        <v>0.4244104042804508</v>
       </c>
       <c r="L25">
-        <v>0.1887293963519809</v>
+        <v>0.3116009927686747</v>
       </c>
       <c r="M25">
-        <v>0.2597630006081282</v>
+        <v>0.2537616009857437</v>
       </c>
       <c r="N25">
-        <v>1.120475537610439</v>
+        <v>2.495372415747093</v>
       </c>
       <c r="O25">
-        <v>2.41936912436978</v>
+        <v>5.228052115431808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8070710853421019</v>
+        <v>1.015967650791566</v>
       </c>
       <c r="C2">
-        <v>0.1558612813855618</v>
+        <v>0.108893073381509</v>
       </c>
       <c r="D2">
-        <v>0.1434369537791085</v>
+        <v>0.0838188460234619</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.01944559355163</v>
+        <v>0.9280632980232966</v>
       </c>
       <c r="G2">
-        <v>0.002515851339151515</v>
+        <v>0.0008305854808723209</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2383690032694119</v>
+        <v>0.08986214976287243</v>
       </c>
       <c r="K2">
-        <v>0.3802870271782979</v>
+        <v>0.8050777231384814</v>
       </c>
       <c r="L2">
-        <v>0.3084297752315166</v>
+        <v>0.1696427118241459</v>
       </c>
       <c r="M2">
-        <v>0.2449838662812631</v>
+        <v>0.2226926395054782</v>
       </c>
       <c r="N2">
-        <v>2.524859982403882</v>
+        <v>1.188372686877246</v>
       </c>
       <c r="O2">
-        <v>5.259120794124755</v>
+        <v>2.383272538754341</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7750478471484996</v>
+        <v>0.8906547942835346</v>
       </c>
       <c r="C3">
-        <v>0.1551571922457455</v>
+        <v>0.1068750895275201</v>
       </c>
       <c r="D3">
-        <v>0.1421654971644344</v>
+        <v>0.07677147187936839</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.026840617455591</v>
+        <v>0.9132359042178422</v>
       </c>
       <c r="G3">
-        <v>0.002518261474892289</v>
+        <v>0.0008341600143817966</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2397036272473088</v>
+        <v>0.09154514768895972</v>
       </c>
       <c r="K3">
-        <v>0.3505862734810279</v>
+        <v>0.699554946850526</v>
       </c>
       <c r="L3">
-        <v>0.3064982543490373</v>
+        <v>0.1570108112152155</v>
       </c>
       <c r="M3">
-        <v>0.2392293765846993</v>
+        <v>0.1978658081039057</v>
       </c>
       <c r="N3">
-        <v>2.546200127696054</v>
+        <v>1.236937066637079</v>
       </c>
       <c r="O3">
-        <v>5.284425909537447</v>
+        <v>2.366411099798</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7556998502377041</v>
+        <v>0.8141438514228128</v>
       </c>
       <c r="C4">
-        <v>0.1547247576522643</v>
+        <v>0.1056441474406924</v>
       </c>
       <c r="D4">
-        <v>0.1414334756560578</v>
+        <v>0.07249980027018665</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.032177260091899</v>
+        <v>0.9054262283475012</v>
       </c>
       <c r="G4">
-        <v>0.002519821937518898</v>
+        <v>0.0008364322909052296</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2405790339290128</v>
+        <v>0.0926561972625084</v>
       </c>
       <c r="K4">
-        <v>0.3324517332338957</v>
+        <v>0.6349241897715672</v>
       </c>
       <c r="L4">
-        <v>0.3054202363314857</v>
+        <v>0.1493926263986083</v>
       </c>
       <c r="M4">
-        <v>0.2357926733530036</v>
+        <v>0.1827495750487103</v>
       </c>
       <c r="N4">
-        <v>2.559972868366446</v>
+        <v>1.267976278036741</v>
       </c>
       <c r="O4">
-        <v>5.30206293338189</v>
+        <v>2.359593411233263</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7478951164171974</v>
+        <v>0.7830619447476863</v>
       </c>
       <c r="C5">
-        <v>0.1545485215197822</v>
+        <v>0.1051444124708709</v>
       </c>
       <c r="D5">
-        <v>0.1411474693906669</v>
+        <v>0.07077236953117705</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.034552446216409</v>
+        <v>0.902558140268674</v>
       </c>
       <c r="G5">
-        <v>0.002520478172698966</v>
+        <v>0.0008373780262459496</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2409498608772687</v>
+        <v>0.09312822698975154</v>
       </c>
       <c r="K5">
-        <v>0.3250878530402872</v>
+        <v>0.6086181734953868</v>
       </c>
       <c r="L5">
-        <v>0.3050081863469742</v>
+        <v>0.1463212183426421</v>
       </c>
       <c r="M5">
-        <v>0.2344166245605273</v>
+        <v>0.1766191623197599</v>
       </c>
       <c r="N5">
-        <v>2.565753886708499</v>
+        <v>1.280926483076543</v>
       </c>
       <c r="O5">
-        <v>5.309778697457276</v>
+        <v>2.357674013297782</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7466039817411172</v>
+        <v>0.7779063432371913</v>
       </c>
       <c r="C6">
-        <v>0.1545192571458216</v>
+        <v>0.1050615413273768</v>
       </c>
       <c r="D6">
-        <v>0.1411007229165264</v>
+        <v>0.0704863169676031</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.034958959741516</v>
+        <v>0.9021005721694308</v>
       </c>
       <c r="G6">
-        <v>0.002520588369785156</v>
+        <v>0.0008375362665163956</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2410122882297738</v>
+        <v>0.09320776334603309</v>
       </c>
       <c r="K6">
-        <v>0.3238666764635099</v>
+        <v>0.604251734501176</v>
       </c>
       <c r="L6">
-        <v>0.304941414831994</v>
+        <v>0.1458131650214014</v>
       </c>
       <c r="M6">
-        <v>0.2341896129941716</v>
+        <v>0.1756029275765698</v>
       </c>
       <c r="N6">
-        <v>2.566724000858432</v>
+        <v>1.283094909035659</v>
       </c>
       <c r="O6">
-        <v>5.311091833334018</v>
+        <v>2.357406317254132</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7555942691434439</v>
+        <v>0.8137242924554755</v>
       </c>
       <c r="C7">
-        <v>0.1547223809133627</v>
+        <v>0.1056374004091047</v>
       </c>
       <c r="D7">
-        <v>0.1414295685960667</v>
+        <v>0.07247645045667639</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.032208480648407</v>
+        <v>0.9053862895083569</v>
       </c>
       <c r="G7">
-        <v>0.002519830705299556</v>
+        <v>0.0008364449649138073</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2405839779417764</v>
+        <v>0.09266248554759038</v>
       </c>
       <c r="K7">
-        <v>0.3323523150839947</v>
+        <v>0.6345693012981286</v>
       </c>
       <c r="L7">
-        <v>0.3054145687989873</v>
+        <v>0.1493510724999041</v>
       </c>
       <c r="M7">
-        <v>0.2357740163386737</v>
+        <v>0.1826667816213039</v>
       </c>
       <c r="N7">
-        <v>2.560050150776874</v>
+        <v>1.268149715355861</v>
       </c>
       <c r="O7">
-        <v>5.302164850097753</v>
+        <v>2.35956408684666</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.795964611501546</v>
+        <v>0.9726629760721721</v>
       </c>
       <c r="C8">
-        <v>0.1556185452770009</v>
+        <v>0.1081954923489548</v>
       </c>
       <c r="D8">
-        <v>0.1429884937014805</v>
+        <v>0.08137701223462557</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.021830341591595</v>
+        <v>0.9226753361489841</v>
       </c>
       <c r="G8">
-        <v>0.002516665654880452</v>
+        <v>0.0008318020651886429</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2388175855877464</v>
+        <v>0.09042616131279324</v>
       </c>
       <c r="K8">
-        <v>0.370025350151451</v>
+        <v>0.7686546232914395</v>
       </c>
       <c r="L8">
-        <v>0.3077414466239148</v>
+        <v>0.1652576306055238</v>
       </c>
       <c r="M8">
-        <v>0.2429797618643867</v>
+        <v>0.2141043287678137</v>
       </c>
       <c r="N8">
-        <v>2.532079100547634</v>
+        <v>1.204861040236363</v>
       </c>
       <c r="O8">
-        <v>5.267410572116631</v>
+        <v>2.376706402125393</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8776003297137436</v>
+        <v>1.288334355228756</v>
       </c>
       <c r="C9">
-        <v>0.1573743917359991</v>
+        <v>0.1132840637464554</v>
       </c>
       <c r="D9">
-        <v>0.1464291137432028</v>
+        <v>0.09930177670928231</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.007783825456748</v>
+        <v>0.9673764061593673</v>
       </c>
       <c r="G9">
-        <v>0.002511096066696195</v>
+        <v>0.0008232991369595498</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2357964655439169</v>
+        <v>0.08666957657896646</v>
       </c>
       <c r="K9">
-        <v>0.4446927042972391</v>
+        <v>1.033304941644985</v>
       </c>
       <c r="L9">
-        <v>0.3131566715099723</v>
+        <v>0.1976216978100638</v>
       </c>
       <c r="M9">
-        <v>0.2578707889298144</v>
+        <v>0.2768869701205716</v>
       </c>
       <c r="N9">
-        <v>2.482537856730847</v>
+        <v>1.09068918294386</v>
       </c>
       <c r="O9">
-        <v>5.215893359050568</v>
+        <v>2.439804836586831</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9390566953217387</v>
+        <v>1.523548353805353</v>
       </c>
       <c r="C10">
-        <v>0.1586628417522746</v>
+        <v>0.1170788049183997</v>
       </c>
       <c r="D10">
-        <v>0.1491877880002619</v>
+        <v>0.112804512616961</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.001293577559693</v>
+        <v>1.007575189144674</v>
       </c>
       <c r="G10">
-        <v>0.002507388692851829</v>
+        <v>0.000817399667418837</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2338452426756419</v>
+        <v>0.08431105029414709</v>
       </c>
       <c r="K10">
-        <v>0.500014976272297</v>
+        <v>1.22944306467528</v>
       </c>
       <c r="L10">
-        <v>0.317649753015715</v>
+        <v>0.2222295645846799</v>
       </c>
       <c r="M10">
-        <v>0.2692685612427539</v>
+        <v>0.3238874475913391</v>
       </c>
       <c r="N10">
-        <v>2.449369321575446</v>
+        <v>1.013229935562793</v>
       </c>
       <c r="O10">
-        <v>5.188156704787616</v>
+        <v>2.50623933858563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9673305367142859</v>
+        <v>1.631471053930255</v>
       </c>
       <c r="C11">
-        <v>0.1592485229331331</v>
+        <v>0.118820322277422</v>
       </c>
       <c r="D11">
-        <v>0.1504922979969336</v>
+        <v>0.1190306006474344</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.999169740214327</v>
+        <v>1.027642655663314</v>
       </c>
       <c r="G11">
-        <v>0.002505784824172299</v>
+        <v>0.0008147868740386757</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2330155363563975</v>
+        <v>0.08332950068807676</v>
       </c>
       <c r="K11">
-        <v>0.5252798422566798</v>
+        <v>1.319197022630931</v>
       </c>
       <c r="L11">
-        <v>0.31980447340095</v>
+        <v>0.2336319361809984</v>
       </c>
       <c r="M11">
-        <v>0.2745517452569715</v>
+        <v>0.3455023606327998</v>
       </c>
       <c r="N11">
-        <v>2.434979700460545</v>
+        <v>0.9794723131798033</v>
       </c>
       <c r="O11">
-        <v>5.177728731231667</v>
+        <v>2.541317567175383</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9780820965864621</v>
+        <v>1.672488873189536</v>
       </c>
       <c r="C12">
-        <v>0.1594702283079386</v>
+        <v>0.11948225146228</v>
       </c>
       <c r="D12">
-        <v>0.150993351960139</v>
+        <v>0.1214012219690375</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.998484395706143</v>
+        <v>1.035513918006203</v>
       </c>
       <c r="G12">
-        <v>0.00250518930301101</v>
+        <v>0.0008138072908327688</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2327096517332699</v>
+        <v>0.08297132975520682</v>
       </c>
       <c r="K12">
-        <v>0.5348607320602525</v>
+        <v>1.353274260863003</v>
       </c>
       <c r="L12">
-        <v>0.3206362425561906</v>
+        <v>0.2379820259394165</v>
       </c>
       <c r="M12">
-        <v>0.276566346785728</v>
+        <v>0.353724799585251</v>
       </c>
       <c r="N12">
-        <v>2.429631144033989</v>
+        <v>0.9669096862575834</v>
       </c>
       <c r="O12">
-        <v>5.174094278155735</v>
+        <v>2.555343262288233</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9757645716596812</v>
+        <v>1.663648002397252</v>
       </c>
       <c r="C13">
-        <v>0.1594224838728593</v>
+        <v>0.1193395796455974</v>
       </c>
       <c r="D13">
-        <v>0.1508851278629351</v>
+        <v>0.1208900757605704</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.998626712424738</v>
+        <v>1.033806330164154</v>
       </c>
       <c r="G13">
-        <v>0.002505317033830421</v>
+        <v>0.0008140178307635499</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2327751603283481</v>
+        <v>0.08304786058631208</v>
       </c>
       <c r="K13">
-        <v>0.5327967180968187</v>
+        <v>1.3459309237262</v>
       </c>
       <c r="L13">
-        <v>0.3204564041736973</v>
+        <v>0.2370436828358891</v>
       </c>
       <c r="M13">
-        <v>0.2761318473046828</v>
+        <v>0.3519522284873062</v>
       </c>
       <c r="N13">
-        <v>2.430778582766235</v>
+        <v>0.9696053267743423</v>
       </c>
       <c r="O13">
-        <v>5.174863047249517</v>
+        <v>2.552288832632428</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9682141788796343</v>
+        <v>1.634842509306424</v>
       </c>
       <c r="C14">
-        <v>0.1592667644477572</v>
+        <v>0.1188747288379943</v>
       </c>
       <c r="D14">
-        <v>0.1505333787971637</v>
+        <v>0.1192253683933302</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.999110974853579</v>
+        <v>1.028284679222622</v>
       </c>
       <c r="G14">
-        <v>0.00250573559350562</v>
+        <v>0.0008147060884513719</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.232990204675751</v>
+        <v>0.08329976049708776</v>
       </c>
       <c r="K14">
-        <v>0.5260677976259842</v>
+        <v>1.321998707794023</v>
       </c>
       <c r="L14">
-        <v>0.3198725870504404</v>
+        <v>0.2339891602822206</v>
       </c>
       <c r="M14">
-        <v>0.274717208575602</v>
+        <v>0.3461780553947875</v>
       </c>
       <c r="N14">
-        <v>2.434537657834696</v>
+        <v>0.9784343086214573</v>
       </c>
       <c r="O14">
-        <v>5.177423424310291</v>
+        <v>2.542456330402786</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9635951673053285</v>
+        <v>1.617218354817794</v>
       </c>
       <c r="C15">
-        <v>0.1591713709965958</v>
+        <v>0.1185903219912632</v>
       </c>
       <c r="D15">
-        <v>0.1503188404094118</v>
+        <v>0.1182073998441808</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.999423077418015</v>
+        <v>1.024938444586212</v>
       </c>
       <c r="G15">
-        <v>0.002505993512385249</v>
+        <v>0.0008151289342773015</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2331230067664265</v>
+        <v>0.08345582902653348</v>
       </c>
       <c r="K15">
-        <v>0.5219478993030293</v>
+        <v>1.307351579000965</v>
       </c>
       <c r="L15">
-        <v>0.3195170396364944</v>
+        <v>0.2321224498145398</v>
       </c>
       <c r="M15">
-        <v>0.273852516691484</v>
+        <v>0.3426461835042645</v>
       </c>
       <c r="N15">
-        <v>2.436853284819776</v>
+        <v>0.9838712956725573</v>
       </c>
       <c r="O15">
-        <v>5.179032658869659</v>
+        <v>2.536531664362855</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9372152513352319</v>
+        <v>1.516515358629249</v>
       </c>
       <c r="C16">
-        <v>0.1586245558689896</v>
+        <v>0.1169653215195012</v>
       </c>
       <c r="D16">
-        <v>0.1491035272683803</v>
+        <v>0.112399382548972</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.001449027988031</v>
+        <v>1.006300918411398</v>
       </c>
       <c r="G16">
-        <v>0.002507495167754541</v>
+        <v>0.0008175718151606421</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2339006295365333</v>
+        <v>0.08437706747158558</v>
       </c>
       <c r="K16">
-        <v>0.4983657944709989</v>
+        <v>1.22358919887003</v>
       </c>
       <c r="L16">
-        <v>0.3175111571420075</v>
+        <v>0.221488776725991</v>
       </c>
       <c r="M16">
-        <v>0.2689252568720875</v>
+        <v>0.3224798822216499</v>
       </c>
       <c r="N16">
-        <v>2.450323779114392</v>
+        <v>1.015466506968515</v>
       </c>
       <c r="O16">
-        <v>5.188882217488754</v>
+        <v>2.504048316783951</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9211127154293308</v>
+        <v>1.454985500672535</v>
       </c>
       <c r="C17">
-        <v>0.1582889781412788</v>
+        <v>0.1159725242779857</v>
       </c>
       <c r="D17">
-        <v>0.1483706235090239</v>
+        <v>0.108858401860175</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.002903934272481</v>
+        <v>0.9953346307921009</v>
       </c>
       <c r="G17">
-        <v>0.002508437510977045</v>
+        <v>0.000819088346177832</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2343924943423037</v>
+        <v>0.08496588181558984</v>
       </c>
       <c r="K17">
-        <v>0.4839237856963052</v>
+        <v>1.172348471646387</v>
       </c>
       <c r="L17">
-        <v>0.3163089129844394</v>
+        <v>0.2150202815747093</v>
       </c>
       <c r="M17">
-        <v>0.2659276019643571</v>
+        <v>0.3101710187131701</v>
       </c>
       <c r="N17">
-        <v>2.458766482676479</v>
+        <v>1.035233467777653</v>
       </c>
       <c r="O17">
-        <v>5.195485073900528</v>
+        <v>2.48539516464129</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9118808462821164</v>
+        <v>1.419680906687404</v>
       </c>
       <c r="C18">
-        <v>0.1580959221309968</v>
+        <v>0.1154029141009403</v>
       </c>
       <c r="D18">
-        <v>0.1479537467630649</v>
+        <v>0.106829536856651</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.003818765186722</v>
+        <v>0.9891937129433757</v>
       </c>
       <c r="G18">
-        <v>0.00250898730296276</v>
+        <v>0.0008199673120007827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2346808544209171</v>
+        <v>0.08531312681603609</v>
       </c>
       <c r="K18">
-        <v>0.475626425941158</v>
+        <v>1.142925180638031</v>
       </c>
       <c r="L18">
-        <v>0.3156278490064608</v>
+        <v>0.2113192163036359</v>
       </c>
       <c r="M18">
-        <v>0.2642126902055892</v>
+        <v>0.3031130926512162</v>
       </c>
       <c r="N18">
-        <v>2.463688288478298</v>
+        <v>1.046741602900441</v>
       </c>
       <c r="O18">
-        <v>5.199488982509934</v>
+        <v>2.475120722071779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.908760248457213</v>
+        <v>1.407741601674786</v>
       </c>
       <c r="C19">
-        <v>0.1580305501995554</v>
+        <v>0.1152102903562948</v>
       </c>
       <c r="D19">
-        <v>0.147813403522008</v>
+        <v>0.10614391311546</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.004141916558808</v>
+        <v>0.9871426443384266</v>
       </c>
       <c r="G19">
-        <v>0.002509174791326731</v>
+        <v>0.0008202660759348609</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2347794252928086</v>
+        <v>0.08543215936912496</v>
       </c>
       <c r="K19">
-        <v>0.4728186961823155</v>
+        <v>1.132970991926953</v>
       </c>
       <c r="L19">
-        <v>0.3153990479967703</v>
+        <v>0.2100693697747431</v>
       </c>
       <c r="M19">
-        <v>0.263633645793</v>
+        <v>0.3007270375866824</v>
       </c>
       <c r="N19">
-        <v>2.465366026882759</v>
+        <v>1.050661646920471</v>
       </c>
       <c r="O19">
-        <v>5.200880052663962</v>
+        <v>2.471718715695744</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9228237702313038</v>
+        <v>1.461526463347212</v>
       </c>
       <c r="C20">
-        <v>0.1583247052778631</v>
+        <v>0.1160780604190705</v>
       </c>
       <c r="D20">
-        <v>0.1484481594942082</v>
+        <v>0.1092345302121061</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.002740985337013</v>
+        <v>0.9964846551242914</v>
       </c>
       <c r="G20">
-        <v>0.002508336392134736</v>
+        <v>0.00081892621830824</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2343395703381077</v>
+        <v>0.08490231138110893</v>
       </c>
       <c r="K20">
-        <v>0.4854602033219919</v>
+        <v>1.177797968497259</v>
       </c>
       <c r="L20">
-        <v>0.3164358147268445</v>
+        <v>0.2157068353368174</v>
       </c>
       <c r="M20">
-        <v>0.2662457502110698</v>
+        <v>0.311479035528798</v>
       </c>
       <c r="N20">
-        <v>2.457860934029377</v>
+        <v>1.033114829717285</v>
       </c>
       <c r="O20">
-        <v>5.194760859249016</v>
+        <v>2.487333491045689</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9704307002437531</v>
+        <v>1.643299171937286</v>
       </c>
       <c r="C21">
-        <v>0.1593125052985158</v>
+        <v>0.1190111980024113</v>
       </c>
       <c r="D21">
-        <v>0.1506365048147558</v>
+        <v>0.1197139746516171</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.998965510110267</v>
+        <v>1.029899002797933</v>
       </c>
       <c r="G21">
-        <v>0.002505612331651365</v>
+        <v>0.0008145036668629466</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2329268156507958</v>
+        <v>0.08322540127008438</v>
       </c>
       <c r="K21">
-        <v>0.5280438788920208</v>
+        <v>1.329025644847405</v>
       </c>
       <c r="L21">
-        <v>0.3200436397191453</v>
+        <v>0.2348854527814552</v>
       </c>
       <c r="M21">
-        <v>0.2751323442613227</v>
+        <v>0.3478730261439793</v>
       </c>
       <c r="N21">
-        <v>2.43343079950599</v>
+        <v>0.9758349681294476</v>
       </c>
       <c r="O21">
-        <v>5.176662850619863</v>
+        <v>2.545323863810353</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0018057822966</v>
+        <v>1.76298030333038</v>
       </c>
       <c r="C22">
-        <v>0.1599576196979129</v>
+        <v>0.120942615852428</v>
       </c>
       <c r="D22">
-        <v>0.152107861445387</v>
+        <v>0.1266387676209604</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.997190983391789</v>
+        <v>1.053331703988206</v>
       </c>
       <c r="G22">
-        <v>0.002503900925642864</v>
+        <v>0.0008116703538301617</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2320519096421307</v>
+        <v>0.08220844678352535</v>
       </c>
       <c r="K22">
-        <v>0.5559539924161925</v>
+        <v>1.428389331701965</v>
       </c>
       <c r="L22">
-        <v>0.3224937417764693</v>
+        <v>0.2476090093012147</v>
       </c>
       <c r="M22">
-        <v>0.2810216272547734</v>
+        <v>0.3718781319933271</v>
       </c>
       <c r="N22">
-        <v>2.418049965169027</v>
+        <v>0.9396894659948885</v>
       </c>
       <c r="O22">
-        <v>5.166667071770689</v>
+        <v>2.587573264495916</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9850366483290429</v>
+        <v>1.699017539853202</v>
       </c>
       <c r="C23">
-        <v>0.1596133582582979</v>
+        <v>0.1199103687109755</v>
       </c>
       <c r="D23">
-        <v>0.1513188271240153</v>
+        <v>0.1229356171161129</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.998074756698969</v>
+        <v>1.040673755028763</v>
       </c>
       <c r="G23">
-        <v>0.002504808046248622</v>
+        <v>0.0008131774515452093</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2325144407196227</v>
+        <v>0.08274385289430697</v>
       </c>
       <c r="K23">
-        <v>0.5410507658556298</v>
+        <v>1.375304183199773</v>
       </c>
       <c r="L23">
-        <v>0.3211776776961699</v>
+        <v>0.2408000845107381</v>
       </c>
       <c r="M23">
-        <v>0.2778710120815546</v>
+        <v>0.3590447919057738</v>
       </c>
       <c r="N23">
-        <v>2.426205423495233</v>
+        <v>0.9588601788296156</v>
       </c>
       <c r="O23">
-        <v>5.171834502718923</v>
+        <v>2.564610734366966</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.92205012226907</v>
+        <v>1.458569078177646</v>
       </c>
       <c r="C24">
-        <v>0.158308553438161</v>
+        <v>0.1160303439287631</v>
       </c>
       <c r="D24">
-        <v>0.1484130915182504</v>
+        <v>0.1090644611856391</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.002814410365588</v>
+        <v>0.9959642202913841</v>
       </c>
       <c r="G24">
-        <v>0.002508382083013897</v>
+        <v>0.0008189994941851368</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2343634798962899</v>
+        <v>0.08493102441825862</v>
       </c>
       <c r="K24">
-        <v>0.4847655716066299</v>
+        <v>1.17533414080421</v>
       </c>
       <c r="L24">
-        <v>0.3163784109119661</v>
+        <v>0.2153963892408512</v>
       </c>
       <c r="M24">
-        <v>0.2661018889628366</v>
+        <v>0.3108876234550806</v>
       </c>
       <c r="N24">
-        <v>2.458270120805663</v>
+        <v>1.03407221853362</v>
       </c>
       <c r="O24">
-        <v>5.19508762925264</v>
+        <v>2.486455776865029</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8552541002107432</v>
+        <v>1.20242414048812</v>
       </c>
       <c r="C25">
-        <v>0.1568996186500158</v>
+        <v>0.1118985484186581</v>
       </c>
       <c r="D25">
-        <v>0.1454575795724082</v>
+        <v>0.09439761570834548</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.010910233654243</v>
+        <v>0.9540503905574695</v>
       </c>
       <c r="G25">
-        <v>0.002512534977040972</v>
+        <v>0.0008255369115398269</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2365665157960155</v>
+        <v>0.08761670527638188</v>
       </c>
       <c r="K25">
-        <v>0.4244104042804508</v>
+        <v>0.9614615952676502</v>
       </c>
       <c r="L25">
-        <v>0.3116009927686747</v>
+        <v>0.1887293963520875</v>
       </c>
       <c r="M25">
-        <v>0.2537616009857437</v>
+        <v>0.2597630006081353</v>
       </c>
       <c r="N25">
-        <v>2.495372415747093</v>
+        <v>1.120475537610448</v>
       </c>
       <c r="O25">
-        <v>5.228052115431808</v>
+        <v>2.419369124369808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.015967650791566</v>
+        <v>2.595811271408763</v>
       </c>
       <c r="C2">
-        <v>0.108893073381509</v>
+        <v>0.5220456424354154</v>
       </c>
       <c r="D2">
-        <v>0.0838188460234619</v>
+        <v>0.1000403502825691</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9280632980232966</v>
+        <v>0.5108967400292386</v>
       </c>
       <c r="G2">
-        <v>0.0008305854808723209</v>
+        <v>0.2892768947054876</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004130658788433772</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002240893360013541</v>
       </c>
       <c r="J2">
-        <v>0.08986214976287243</v>
+        <v>0.274486455439245</v>
       </c>
       <c r="K2">
-        <v>0.8050777231384814</v>
+        <v>0.2743693979684441</v>
       </c>
       <c r="L2">
-        <v>0.1696427118241459</v>
+        <v>0.1081131188877684</v>
       </c>
       <c r="M2">
-        <v>0.2226926395054782</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.188372686877246</v>
+        <v>0.2374424915388005</v>
       </c>
       <c r="O2">
-        <v>2.383272538754341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4694180765099816</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.136000860524575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8906547942835346</v>
+        <v>2.263187259920187</v>
       </c>
       <c r="C3">
-        <v>0.1068750895275201</v>
+        <v>0.4770981874528104</v>
       </c>
       <c r="D3">
-        <v>0.07677147187936839</v>
+        <v>0.09513824951844896</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9132359042178422</v>
+        <v>0.5026356998994572</v>
       </c>
       <c r="G3">
-        <v>0.0008341600143817966</v>
+        <v>0.2828636539063183</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005787967062782284</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003339567209429628</v>
       </c>
       <c r="J3">
-        <v>0.09154514768895972</v>
+        <v>0.2761005670640202</v>
       </c>
       <c r="K3">
-        <v>0.699554946850526</v>
+        <v>0.2847617187054539</v>
       </c>
       <c r="L3">
-        <v>0.1570108112152155</v>
+        <v>0.1060879727346435</v>
       </c>
       <c r="M3">
-        <v>0.1978658081039057</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.236937066637079</v>
+        <v>0.2147268188432818</v>
       </c>
       <c r="O3">
-        <v>2.366411099798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4101072453754995</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.125492481187578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8141438514228128</v>
+        <v>2.058471621523381</v>
       </c>
       <c r="C4">
-        <v>0.1056441474406924</v>
+        <v>0.4496466957717757</v>
       </c>
       <c r="D4">
-        <v>0.07249980027018665</v>
+        <v>0.09216126753827325</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9054262283475012</v>
+        <v>0.4981052856569548</v>
       </c>
       <c r="G4">
-        <v>0.0008364322909052296</v>
+        <v>0.2793452964956771</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.006987308168688477</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004206289122546281</v>
       </c>
       <c r="J4">
-        <v>0.0926561972625084</v>
+        <v>0.2773828441180441</v>
       </c>
       <c r="K4">
-        <v>0.6349241897715672</v>
+        <v>0.2915019411861408</v>
       </c>
       <c r="L4">
-        <v>0.1493926263986083</v>
+        <v>0.104812345659882</v>
       </c>
       <c r="M4">
-        <v>0.1827495750487103</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.267976278036741</v>
+        <v>0.2008360496525157</v>
       </c>
       <c r="O4">
-        <v>2.359593411233263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3736599956858342</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.120531307273154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7830619447476863</v>
+        <v>1.974843671421809</v>
       </c>
       <c r="C5">
-        <v>0.1051444124708709</v>
+        <v>0.4391342460123155</v>
       </c>
       <c r="D5">
-        <v>0.07077236953117705</v>
+        <v>0.09096079900399445</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.902558140268674</v>
+        <v>0.4959778248147941</v>
       </c>
       <c r="G5">
-        <v>0.0008373780262459496</v>
+        <v>0.2776678145353273</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007522510735479937</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004682110189137667</v>
       </c>
       <c r="J5">
-        <v>0.09312822698975154</v>
+        <v>0.27779444089186</v>
       </c>
       <c r="K5">
-        <v>0.6086181734953868</v>
+        <v>0.2941093505798165</v>
       </c>
       <c r="L5">
-        <v>0.1463212183426421</v>
+        <v>0.1042909120328535</v>
       </c>
       <c r="M5">
-        <v>0.1766191623197599</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.280926483076543</v>
+        <v>0.1953326861851963</v>
       </c>
       <c r="O5">
-        <v>2.357674013297782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3588780198656067</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.117758450670109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7779063432371913</v>
+        <v>1.960856527416183</v>
       </c>
       <c r="C6">
-        <v>0.1050615413273768</v>
+        <v>0.4381772538509381</v>
       </c>
       <c r="D6">
-        <v>0.0704863169676031</v>
+        <v>0.09076773062730581</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9021005721694308</v>
+        <v>0.4951276468772789</v>
       </c>
       <c r="G6">
-        <v>0.0008375362665163956</v>
+        <v>0.2769742054497613</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007617158084864628</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004864505848348522</v>
       </c>
       <c r="J6">
-        <v>0.09320776334603309</v>
+        <v>0.2776443866210272</v>
       </c>
       <c r="K6">
-        <v>0.604251734501176</v>
+        <v>0.2942705606490801</v>
       </c>
       <c r="L6">
-        <v>0.1458131650214014</v>
+        <v>0.1042123199175293</v>
       </c>
       <c r="M6">
-        <v>0.1756029275765698</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.283094909035659</v>
+        <v>0.1945966400391654</v>
       </c>
       <c r="O6">
-        <v>2.357406317254132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3565208943422249</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.115960467831911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8137242924554755</v>
+        <v>2.057089309399714</v>
       </c>
       <c r="C7">
-        <v>0.1056374004091047</v>
+        <v>0.4516612896101151</v>
       </c>
       <c r="D7">
-        <v>0.07247645045667639</v>
+        <v>0.09216105450906298</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9053862895083569</v>
+        <v>0.4966995535964216</v>
       </c>
       <c r="G7">
-        <v>0.0008364449649138073</v>
+        <v>0.2781732987851271</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007002429301175478</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004471514933431564</v>
       </c>
       <c r="J7">
-        <v>0.09266248554759038</v>
+        <v>0.2767815157842435</v>
       </c>
       <c r="K7">
-        <v>0.6345693012981286</v>
+        <v>0.2907836479614812</v>
       </c>
       <c r="L7">
-        <v>0.1493510724999041</v>
+        <v>0.1048299948981697</v>
       </c>
       <c r="M7">
-        <v>0.1826667816213039</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.268149715355861</v>
+        <v>0.2012461221516375</v>
       </c>
       <c r="O7">
-        <v>2.35956408684666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3737287336940014</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.116786041398498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9726629760721721</v>
+        <v>2.480873888008773</v>
       </c>
       <c r="C8">
-        <v>0.1081954923489548</v>
+        <v>0.5094087818405342</v>
       </c>
       <c r="D8">
-        <v>0.08137701223462557</v>
+        <v>0.09836501926221075</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9226753361489841</v>
+        <v>0.5061220866033977</v>
       </c>
       <c r="G8">
-        <v>0.0008318020651886429</v>
+        <v>0.2854617301498266</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004671305069469223</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002889444722915968</v>
       </c>
       <c r="J8">
-        <v>0.09042616131279324</v>
+        <v>0.2741860041584587</v>
       </c>
       <c r="K8">
-        <v>0.7686546232914395</v>
+        <v>0.2768985017177918</v>
       </c>
       <c r="L8">
-        <v>0.1652576306055238</v>
+        <v>0.1074605646452866</v>
       </c>
       <c r="M8">
-        <v>0.2141043287678137</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.204861040236363</v>
+        <v>0.230242432649554</v>
       </c>
       <c r="O8">
-        <v>2.376706402125393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4493287597201672</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.12718412211035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.288334355228756</v>
+        <v>3.308958594285059</v>
       </c>
       <c r="C9">
-        <v>0.1132840637464554</v>
+        <v>0.6200641000880296</v>
       </c>
       <c r="D9">
-        <v>0.09930177670928231</v>
+        <v>0.1107782813743228</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9673764061593673</v>
+        <v>0.531563906464072</v>
       </c>
       <c r="G9">
-        <v>0.0008232991369595498</v>
+        <v>0.3053474511123326</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001618655445629891</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001015167914978576</v>
       </c>
       <c r="J9">
-        <v>0.08666957657896646</v>
+        <v>0.2725731054164697</v>
       </c>
       <c r="K9">
-        <v>1.033304941644985</v>
+        <v>0.2539483747892994</v>
       </c>
       <c r="L9">
-        <v>0.1976216978100638</v>
+        <v>0.1123206913514583</v>
       </c>
       <c r="M9">
-        <v>0.2768869701205716</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.09068918294386</v>
+        <v>0.286754565601683</v>
       </c>
       <c r="O9">
-        <v>2.439804836586831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5969589365449437</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.166650966267639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523548353805353</v>
+        <v>3.91973913709603</v>
       </c>
       <c r="C10">
-        <v>0.1170788049183997</v>
+        <v>0.709797687530056</v>
       </c>
       <c r="D10">
-        <v>0.112804512616961</v>
+        <v>0.1181161863791544</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.007575189144674</v>
+        <v>0.544644247958459</v>
       </c>
       <c r="G10">
-        <v>0.000817399667418837</v>
+        <v>0.3165980994464235</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0006632475690127038</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008923658629846898</v>
       </c>
       <c r="J10">
-        <v>0.08431105029414709</v>
+        <v>0.2699859414052455</v>
       </c>
       <c r="K10">
-        <v>1.22944306467528</v>
+        <v>0.235906069863498</v>
       </c>
       <c r="L10">
-        <v>0.2222295645846799</v>
+        <v>0.1171133759368761</v>
       </c>
       <c r="M10">
-        <v>0.3238874475913391</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.013229935562793</v>
+        <v>0.3191827317121891</v>
       </c>
       <c r="O10">
-        <v>2.50623933858563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7002177255042668</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.18555098431932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.631471053930255</v>
+        <v>4.232196007614334</v>
       </c>
       <c r="C11">
-        <v>0.118820322277422</v>
+        <v>0.8124236946781025</v>
       </c>
       <c r="D11">
-        <v>0.1190306006474344</v>
+        <v>0.1050298759847408</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.027642655663314</v>
+        <v>0.4819882612209838</v>
       </c>
       <c r="G11">
-        <v>0.0008147868740386757</v>
+        <v>0.2762808718801963</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01919361093646899</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001466388868205826</v>
       </c>
       <c r="J11">
-        <v>0.08332950068807676</v>
+        <v>0.2454234191957454</v>
       </c>
       <c r="K11">
-        <v>1.319197022630931</v>
+        <v>0.2053635709053747</v>
       </c>
       <c r="L11">
-        <v>0.2336319361809984</v>
+        <v>0.1387204993113684</v>
       </c>
       <c r="M11">
-        <v>0.3455023606327998</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9794723131798033</v>
+        <v>0.2553490702750736</v>
       </c>
       <c r="O11">
-        <v>2.541317567175383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7004255673529016</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.048841814467764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.672488873189536</v>
+        <v>4.368780864852567</v>
       </c>
       <c r="C12">
-        <v>0.11948225146228</v>
+        <v>0.8808360392997372</v>
       </c>
       <c r="D12">
-        <v>0.1214012219690375</v>
+        <v>0.09334328147602378</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.035513918006203</v>
+        <v>0.4309313876899878</v>
       </c>
       <c r="G12">
-        <v>0.0008138072908327688</v>
+        <v>0.2432180105185111</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05790744821695881</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001486881222493075</v>
       </c>
       <c r="J12">
-        <v>0.08297132975520682</v>
+        <v>0.2267764028892429</v>
       </c>
       <c r="K12">
-        <v>1.353274260863003</v>
+        <v>0.1872834400149141</v>
       </c>
       <c r="L12">
-        <v>0.2379820259394165</v>
+        <v>0.1661720481480913</v>
       </c>
       <c r="M12">
-        <v>0.353724799585251</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9669096862575834</v>
+        <v>0.2011038759231383</v>
       </c>
       <c r="O12">
-        <v>2.555343262288233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6779315165772317</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9397745756297411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.663648002397252</v>
+        <v>4.376189742597035</v>
       </c>
       <c r="C13">
-        <v>0.1193395796455974</v>
+        <v>0.9295687030690942</v>
       </c>
       <c r="D13">
-        <v>0.1208900757605704</v>
+        <v>0.08211611748838976</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.033806330164154</v>
+        <v>0.3835598724533256</v>
       </c>
       <c r="G13">
-        <v>0.0008140178307635499</v>
+        <v>0.2118757240147815</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1137706723428096</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001415224062141895</v>
       </c>
       <c r="J13">
-        <v>0.08304786058631208</v>
+        <v>0.2105489943229557</v>
       </c>
       <c r="K13">
-        <v>1.3459309237262</v>
+        <v>0.1763215792059301</v>
       </c>
       <c r="L13">
-        <v>0.2370436828358891</v>
+        <v>0.1992465811852426</v>
       </c>
       <c r="M13">
-        <v>0.3519522284873062</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9696053267743423</v>
+        <v>0.1520902119767555</v>
       </c>
       <c r="O13">
-        <v>2.552288832632428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.637254900296611</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8393294444282731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.634842509306424</v>
+        <v>4.32265900754345</v>
       </c>
       <c r="C14">
-        <v>0.1188747288379943</v>
+        <v>0.9556870481751218</v>
       </c>
       <c r="D14">
-        <v>0.1192253683933302</v>
+        <v>0.07465887302057439</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.028284679222622</v>
+        <v>0.3523458258207768</v>
       </c>
       <c r="G14">
-        <v>0.0008147060884513719</v>
+        <v>0.1908350006147543</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1632314969707949</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001416499222044898</v>
       </c>
       <c r="J14">
-        <v>0.08329976049708776</v>
+        <v>0.2003067949858064</v>
       </c>
       <c r="K14">
-        <v>1.321998707794023</v>
+        <v>0.1721270906337882</v>
       </c>
       <c r="L14">
-        <v>0.2339891602822206</v>
+        <v>0.2260359365257401</v>
       </c>
       <c r="M14">
-        <v>0.3461780553947875</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9784343086214573</v>
+        <v>0.1215007556235363</v>
       </c>
       <c r="O14">
-        <v>2.542456330402786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6008538107673047</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7732197733611059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.617218354817794</v>
+        <v>4.281677316906325</v>
       </c>
       <c r="C15">
-        <v>0.1185903219912632</v>
+        <v>0.9582762935367839</v>
       </c>
       <c r="D15">
-        <v>0.1182073998441808</v>
+        <v>0.07283756523325735</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.024938444586212</v>
+        <v>0.3448685959443409</v>
       </c>
       <c r="G15">
-        <v>0.0008151289342773015</v>
+        <v>0.1855758342478211</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.175801748002911</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001520055537189258</v>
       </c>
       <c r="J15">
-        <v>0.08345582902653348</v>
+        <v>0.1980833031121705</v>
       </c>
       <c r="K15">
-        <v>1.307351579000965</v>
+        <v>0.1721407405302604</v>
       </c>
       <c r="L15">
-        <v>0.2321224498145398</v>
+        <v>0.2324525441896483</v>
       </c>
       <c r="M15">
-        <v>0.3426461835042645</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9838712956725573</v>
+        <v>0.1143877456645939</v>
       </c>
       <c r="O15">
-        <v>2.536531664362855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.588343048776288</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7573800785565226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.516515358629249</v>
+        <v>4.015294692261023</v>
       </c>
       <c r="C16">
-        <v>0.1169653215195012</v>
+        <v>0.9090502552298574</v>
       </c>
       <c r="D16">
-        <v>0.112399382548972</v>
+        <v>0.07218703551702177</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.006300918411398</v>
+        <v>0.3480833390313229</v>
       </c>
       <c r="G16">
-        <v>0.0008175718151606421</v>
+        <v>0.1862944009309473</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1634479247355927</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001629879097838405</v>
       </c>
       <c r="J16">
-        <v>0.08437706747158558</v>
+        <v>0.201921841751421</v>
       </c>
       <c r="K16">
-        <v>1.22358919887003</v>
+        <v>0.1810465504039596</v>
       </c>
       <c r="L16">
-        <v>0.221488776725991</v>
+        <v>0.2224687686797822</v>
       </c>
       <c r="M16">
-        <v>0.3224798822216499</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.015466506968515</v>
+        <v>0.1119004560187165</v>
       </c>
       <c r="O16">
-        <v>2.504048316783951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5533706664569209</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7667443988623006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.454985500672535</v>
+        <v>3.839998490882408</v>
       </c>
       <c r="C17">
-        <v>0.1159725242779857</v>
+        <v>0.8575964032135914</v>
       </c>
       <c r="D17">
-        <v>0.108858401860175</v>
+        <v>0.07553187531121353</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9953346307921009</v>
+        <v>0.3668990917485146</v>
       </c>
       <c r="G17">
-        <v>0.000819088346177832</v>
+        <v>0.1978985437122205</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1259262503829319</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001763797623522301</v>
       </c>
       <c r="J17">
-        <v>0.08496588181558984</v>
+        <v>0.2102891244026424</v>
       </c>
       <c r="K17">
-        <v>1.172348471646387</v>
+        <v>0.1899857075238898</v>
       </c>
       <c r="L17">
-        <v>0.2150202815747093</v>
+        <v>0.1999343947911854</v>
       </c>
       <c r="M17">
-        <v>0.3101710187131701</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.035233467777653</v>
+        <v>0.1254042801177704</v>
       </c>
       <c r="O17">
-        <v>2.48539516464129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5457735877335779</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.808745271042369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.419680906687404</v>
+        <v>3.723425179641026</v>
       </c>
       <c r="C18">
-        <v>0.1154029141009403</v>
+        <v>0.7978157830152099</v>
       </c>
       <c r="D18">
-        <v>0.106829536856651</v>
+        <v>0.08319825545204651</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9891937129433757</v>
+        <v>0.4035291107771215</v>
       </c>
       <c r="G18">
-        <v>0.0008199673120007827</v>
+        <v>0.2217791520690824</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07318768768922013</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001583869001831495</v>
       </c>
       <c r="J18">
-        <v>0.08531312681603609</v>
+        <v>0.2242447006824264</v>
       </c>
       <c r="K18">
-        <v>1.142925180638031</v>
+        <v>0.2016334870349077</v>
       </c>
       <c r="L18">
-        <v>0.2113192163036359</v>
+        <v>0.1685724695896056</v>
       </c>
       <c r="M18">
-        <v>0.3031130926512162</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.046741602900441</v>
+        <v>0.1577368368217762</v>
       </c>
       <c r="O18">
-        <v>2.475120722071779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5606082746359107</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.888528865205771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.407741601674786</v>
+        <v>3.66228981053365</v>
       </c>
       <c r="C19">
-        <v>0.1152102903562948</v>
+        <v>0.7430543872173132</v>
       </c>
       <c r="D19">
-        <v>0.10614391311546</v>
+        <v>0.09463117629913853</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9871426443384266</v>
+        <v>0.4522548302026834</v>
       </c>
       <c r="G19">
-        <v>0.0008202660759348609</v>
+        <v>0.2536771523391863</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02777768256223112</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001688280915788098</v>
       </c>
       <c r="J19">
-        <v>0.08543215936912496</v>
+        <v>0.2414504710049528</v>
       </c>
       <c r="K19">
-        <v>1.132970991926953</v>
+        <v>0.2160509435597238</v>
       </c>
       <c r="L19">
-        <v>0.2100693697747431</v>
+        <v>0.1397565331894342</v>
       </c>
       <c r="M19">
-        <v>0.3007270375866824</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.050661646920471</v>
+        <v>0.2093607191919347</v>
       </c>
       <c r="O19">
-        <v>2.471718715695744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5931148129816108</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.992165109309866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.461526463347212</v>
+        <v>3.75875041226692</v>
       </c>
       <c r="C20">
-        <v>0.1160780604190705</v>
+        <v>0.6934883877385403</v>
       </c>
       <c r="D20">
-        <v>0.1092345302121061</v>
+        <v>0.1161483418883336</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9964846551242914</v>
+        <v>0.5364729047409114</v>
       </c>
       <c r="G20">
-        <v>0.00081892621830824</v>
+        <v>0.3097392164066903</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0008334266041618577</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001632335834130139</v>
       </c>
       <c r="J20">
-        <v>0.08490231138110893</v>
+        <v>0.2686122852691568</v>
       </c>
       <c r="K20">
-        <v>1.177797968497259</v>
+        <v>0.2382160650101124</v>
       </c>
       <c r="L20">
-        <v>0.2157068353368174</v>
+        <v>0.1160497311090332</v>
       </c>
       <c r="M20">
-        <v>0.311479035528798</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.033114829717285</v>
+        <v>0.3117593358832949</v>
       </c>
       <c r="O20">
-        <v>2.487333491045689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6737233557029967</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.168013896144274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.643299171937286</v>
+        <v>4.221229831311348</v>
       </c>
       <c r="C21">
-        <v>0.1190111980024113</v>
+        <v>0.7516425235871225</v>
       </c>
       <c r="D21">
-        <v>0.1197139746516171</v>
+        <v>0.1249040615751795</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.029899002797933</v>
+        <v>0.5608881164765762</v>
       </c>
       <c r="G21">
-        <v>0.0008145036668629466</v>
+        <v>0.3281847713302213</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001281356347919704</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001760304911062605</v>
       </c>
       <c r="J21">
-        <v>0.08322540127008438</v>
+        <v>0.2717750771932899</v>
       </c>
       <c r="K21">
-        <v>1.329025644847405</v>
+        <v>0.2298619698861462</v>
       </c>
       <c r="L21">
-        <v>0.2348854527814552</v>
+        <v>0.1176117777660632</v>
       </c>
       <c r="M21">
-        <v>0.3478730261439793</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9758349681294476</v>
+        <v>0.3515983062429768</v>
       </c>
       <c r="O21">
-        <v>2.545323863810353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7611991399411693</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.214089789814082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.76298030333038</v>
+        <v>4.525821810104446</v>
       </c>
       <c r="C22">
-        <v>0.120942615852428</v>
+        <v>0.7901649393595562</v>
       </c>
       <c r="D22">
-        <v>0.1266387676209604</v>
+        <v>0.1296355421271755</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.053331703988206</v>
+        <v>0.5751722423356114</v>
       </c>
       <c r="G22">
-        <v>0.0008116703538301617</v>
+        <v>0.3395702344676721</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.727122364738378E-06</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001782235353990025</v>
       </c>
       <c r="J22">
-        <v>0.08220844678352535</v>
+        <v>0.2735535346559885</v>
       </c>
       <c r="K22">
-        <v>1.428389331701965</v>
+        <v>0.2242902017735986</v>
       </c>
       <c r="L22">
-        <v>0.2476090093012147</v>
+        <v>0.1192379832212289</v>
       </c>
       <c r="M22">
-        <v>0.3718781319933271</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9396894659948885</v>
+        <v>0.3721227976266874</v>
       </c>
       <c r="O22">
-        <v>2.587573264495916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8153350503377368</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.242171250823162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.699017539853202</v>
+        <v>4.363578081400021</v>
       </c>
       <c r="C23">
-        <v>0.1199103687109755</v>
+        <v>0.7668876470657722</v>
       </c>
       <c r="D23">
-        <v>0.1229356171161129</v>
+        <v>0.1270847785367835</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.040673755028763</v>
+        <v>0.5690671358089929</v>
       </c>
       <c r="G23">
-        <v>0.0008131774515452093</v>
+        <v>0.3347657136730149</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.738610158594447E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001447848268576912</v>
       </c>
       <c r="J23">
-        <v>0.08274385289430697</v>
+        <v>0.2732603216410041</v>
       </c>
       <c r="K23">
-        <v>1.375304183199773</v>
+        <v>0.228040897480966</v>
       </c>
       <c r="L23">
-        <v>0.2408000845107381</v>
+        <v>0.1183199806756612</v>
       </c>
       <c r="M23">
-        <v>0.3590447919057738</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9588601788296156</v>
+        <v>0.3605705431346138</v>
       </c>
       <c r="O23">
-        <v>2.564610734366966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7861146110528381</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.231254514114369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.458569078177646</v>
+        <v>3.748579161845555</v>
       </c>
       <c r="C24">
-        <v>0.1160303439287631</v>
+        <v>0.6834759070223129</v>
       </c>
       <c r="D24">
-        <v>0.1090644611856391</v>
+        <v>0.1175447386065684</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9959642202913841</v>
+        <v>0.5448524854605452</v>
       </c>
       <c r="G24">
-        <v>0.0008189994941851368</v>
+        <v>0.3156551778427286</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006811401964497144</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001140020113156837</v>
       </c>
       <c r="J24">
-        <v>0.08493102441825862</v>
+        <v>0.2717714847555897</v>
       </c>
       <c r="K24">
-        <v>1.17533414080421</v>
+        <v>0.2418242416204297</v>
       </c>
       <c r="L24">
-        <v>0.2153963892408512</v>
+        <v>0.1148907522720428</v>
       </c>
       <c r="M24">
-        <v>0.3108876234550806</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.03407221853362</v>
+        <v>0.3179580329192362</v>
       </c>
       <c r="O24">
-        <v>2.486455776865029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6760800155993465</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.187166203931682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.20242414048812</v>
+        <v>3.08475725442355</v>
       </c>
       <c r="C25">
-        <v>0.1118985484186581</v>
+        <v>0.5939890485562387</v>
       </c>
       <c r="D25">
-        <v>0.09439761570834548</v>
+        <v>0.1074193107787877</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9540503905574695</v>
+        <v>0.5217119160436994</v>
       </c>
       <c r="G25">
-        <v>0.0008255369115398269</v>
+        <v>0.2975025272320053</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002275138752242722</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001772067642359154</v>
       </c>
       <c r="J25">
-        <v>0.08761670527638188</v>
+        <v>0.2716655225758302</v>
       </c>
       <c r="K25">
-        <v>0.9614615952676502</v>
+        <v>0.2585245462315982</v>
       </c>
       <c r="L25">
-        <v>0.1887293963520875</v>
+        <v>0.1110951556994628</v>
       </c>
       <c r="M25">
-        <v>0.2597630006081353</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.120475537610448</v>
+        <v>0.2722888572632343</v>
       </c>
       <c r="O25">
-        <v>2.419369124369808</v>
+        <v>0.5575087307673883</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.147940028414595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.595811271408763</v>
+        <v>2.600066058088146</v>
       </c>
       <c r="C2">
-        <v>0.5220456424354154</v>
+        <v>0.5216371042065475</v>
       </c>
       <c r="D2">
-        <v>0.1000403502825691</v>
+        <v>0.1003525343508613</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5108967400292386</v>
+        <v>0.4913058829821253</v>
       </c>
       <c r="G2">
-        <v>0.2892768947054876</v>
+        <v>0.2567054930231549</v>
       </c>
       <c r="H2">
-        <v>0.004130658788433772</v>
+        <v>0.00352352057184796</v>
       </c>
       <c r="I2">
-        <v>0.002240893360013541</v>
+        <v>0.001673553359470503</v>
       </c>
       <c r="J2">
-        <v>0.274486455439245</v>
+        <v>0.297994633058174</v>
       </c>
       <c r="K2">
-        <v>0.2743693979684441</v>
+        <v>0.2555619480499693</v>
       </c>
       <c r="L2">
-        <v>0.1081131188877684</v>
+        <v>0.1299626814488128</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06794296922071741</v>
       </c>
       <c r="N2">
-        <v>0.2374424915388005</v>
+        <v>0.1060778005105494</v>
       </c>
       <c r="O2">
-        <v>0.4694180765099816</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2472125959925222</v>
       </c>
       <c r="Q2">
-        <v>1.136000860524575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4724734574609215</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.083023116566224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.263187259920187</v>
+        <v>2.268118833043502</v>
       </c>
       <c r="C3">
-        <v>0.4770981874528104</v>
+        <v>0.4699330221742741</v>
       </c>
       <c r="D3">
-        <v>0.09513824951844896</v>
+        <v>0.09558552536715581</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5026356998994572</v>
+        <v>0.4849696603412781</v>
       </c>
       <c r="G3">
-        <v>0.2828636539063183</v>
+        <v>0.2525444359719344</v>
       </c>
       <c r="H3">
-        <v>0.005787967062782284</v>
+        <v>0.004963485768278375</v>
       </c>
       <c r="I3">
-        <v>0.003339567209429628</v>
+        <v>0.002460277977147651</v>
       </c>
       <c r="J3">
-        <v>0.2761005670640202</v>
+        <v>0.2980732456397135</v>
       </c>
       <c r="K3">
-        <v>0.2847617187054539</v>
+        <v>0.2659614100454437</v>
       </c>
       <c r="L3">
-        <v>0.1060879727346435</v>
+        <v>0.1357768514290179</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07134019075579445</v>
       </c>
       <c r="N3">
-        <v>0.2147268188432818</v>
+        <v>0.1039249607630524</v>
       </c>
       <c r="O3">
-        <v>0.4101072453754995</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.223693747864175</v>
       </c>
       <c r="Q3">
-        <v>1.125492481187578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4124014324962459</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.077107959654654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.058471621523381</v>
+        <v>2.063739575663249</v>
       </c>
       <c r="C4">
-        <v>0.4496466957717757</v>
+        <v>0.4384771241155363</v>
       </c>
       <c r="D4">
-        <v>0.09216126753827325</v>
+        <v>0.09269758328564848</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4981052856569548</v>
+        <v>0.4815129549382888</v>
       </c>
       <c r="G4">
-        <v>0.2793452964956771</v>
+        <v>0.2504035162702181</v>
       </c>
       <c r="H4">
-        <v>0.006987308168688477</v>
+        <v>0.006007759334743762</v>
       </c>
       <c r="I4">
-        <v>0.004206289122546281</v>
+        <v>0.003107611811928201</v>
       </c>
       <c r="J4">
-        <v>0.2773828441180441</v>
+        <v>0.2982419484928656</v>
       </c>
       <c r="K4">
-        <v>0.2915019411861408</v>
+        <v>0.2726410929012353</v>
       </c>
       <c r="L4">
-        <v>0.104812345659882</v>
+        <v>0.1395748931676657</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0739267241531909</v>
       </c>
       <c r="N4">
-        <v>0.2008360496525157</v>
+        <v>0.1025819028957784</v>
       </c>
       <c r="O4">
-        <v>0.3736599956858342</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2093439963137627</v>
       </c>
       <c r="Q4">
-        <v>1.120531307273154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3754873328005459</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.074641787647138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.974843671421809</v>
+        <v>1.980230152736567</v>
       </c>
       <c r="C5">
-        <v>0.4391342460123155</v>
+        <v>0.426376362588627</v>
       </c>
       <c r="D5">
-        <v>0.09096079900399445</v>
+        <v>0.09153498192340948</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4959778248147941</v>
+        <v>0.4798086008355753</v>
       </c>
       <c r="G5">
-        <v>0.2776678145353273</v>
+        <v>0.2493014110754928</v>
       </c>
       <c r="H5">
-        <v>0.007522510735479937</v>
+        <v>0.006474341003116613</v>
       </c>
       <c r="I5">
-        <v>0.004682110189137667</v>
+        <v>0.003499631716340268</v>
       </c>
       <c r="J5">
-        <v>0.27779444089186</v>
+        <v>0.2981563848103335</v>
       </c>
       <c r="K5">
-        <v>0.2941093505798165</v>
+        <v>0.2752214736280933</v>
       </c>
       <c r="L5">
-        <v>0.1042909120328535</v>
+        <v>0.1410539127404729</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07507002116821448</v>
       </c>
       <c r="N5">
-        <v>0.1953326861851963</v>
+        <v>0.1020374435956306</v>
       </c>
       <c r="O5">
-        <v>0.3588780198656067</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2036608814411878</v>
       </c>
       <c r="Q5">
-        <v>1.117758450670109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3605144917013163</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.072841799209797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.960856527416183</v>
+        <v>1.966261065381616</v>
       </c>
       <c r="C6">
-        <v>0.4381772538509381</v>
+        <v>0.4251670156207581</v>
       </c>
       <c r="D6">
-        <v>0.09076773062730581</v>
+        <v>0.09134832721108666</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4951276468772789</v>
+        <v>0.4790421387461663</v>
       </c>
       <c r="G6">
-        <v>0.2769742054497613</v>
+        <v>0.2487228883599073</v>
       </c>
       <c r="H6">
-        <v>0.007617158084864628</v>
+        <v>0.006557020047144091</v>
       </c>
       <c r="I6">
-        <v>0.004864505848348522</v>
+        <v>0.003684253122860248</v>
       </c>
       <c r="J6">
-        <v>0.2776443866210272</v>
+        <v>0.2979193824536921</v>
       </c>
       <c r="K6">
-        <v>0.2942705606490801</v>
+        <v>0.2753941097149557</v>
       </c>
       <c r="L6">
-        <v>0.1042123199175293</v>
+        <v>0.1411500844568039</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07522368488344089</v>
       </c>
       <c r="N6">
-        <v>0.1945966400391654</v>
+        <v>0.1019572832665574</v>
       </c>
       <c r="O6">
-        <v>0.3565208943422249</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2028938153851954</v>
       </c>
       <c r="Q6">
-        <v>1.115960467831911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3581243588263234</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.071245126009003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.057089309399714</v>
+        <v>2.062332879594294</v>
       </c>
       <c r="C7">
-        <v>0.4516612896101151</v>
+        <v>0.4401178662146208</v>
       </c>
       <c r="D7">
-        <v>0.09216105450906298</v>
+        <v>0.09281135074071756</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4966995535964216</v>
+        <v>0.4794590625624906</v>
       </c>
       <c r="G7">
-        <v>0.2781732987851271</v>
+        <v>0.2513810465501365</v>
       </c>
       <c r="H7">
-        <v>0.007002429301175478</v>
+        <v>0.006025839104260938</v>
       </c>
       <c r="I7">
-        <v>0.004471514933431564</v>
+        <v>0.003418144207593343</v>
       </c>
       <c r="J7">
-        <v>0.2767815157842435</v>
+        <v>0.2943710580449661</v>
       </c>
       <c r="K7">
-        <v>0.2907836479614812</v>
+        <v>0.2717257600856051</v>
       </c>
       <c r="L7">
-        <v>0.1048299948981697</v>
+        <v>0.1390518350315766</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07376607105622712</v>
       </c>
       <c r="N7">
-        <v>0.2012461221516375</v>
+        <v>0.1025846600918801</v>
       </c>
       <c r="O7">
-        <v>0.3737287336940014</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2097471830368747</v>
       </c>
       <c r="Q7">
-        <v>1.116786041398498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3755525323078714</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.068940879247975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480873888008773</v>
+        <v>2.485293298975535</v>
       </c>
       <c r="C8">
-        <v>0.5094087818405342</v>
+        <v>0.5054202772595033</v>
       </c>
       <c r="D8">
-        <v>0.09836501926221075</v>
+        <v>0.09910382936432427</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5061220866033977</v>
+        <v>0.4849880030969729</v>
       </c>
       <c r="G8">
-        <v>0.2854617301498266</v>
+        <v>0.2607360984693372</v>
       </c>
       <c r="H8">
-        <v>0.004671305069469223</v>
+        <v>0.004004502212591465</v>
       </c>
       <c r="I8">
-        <v>0.002889444722915968</v>
+        <v>0.002282613524497101</v>
       </c>
       <c r="J8">
-        <v>0.2741860041584587</v>
+        <v>0.2866583290554345</v>
       </c>
       <c r="K8">
-        <v>0.2768985017177918</v>
+        <v>0.2574020761109317</v>
       </c>
       <c r="L8">
-        <v>0.1074605646452866</v>
+        <v>0.1310640788235737</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06859124988184373</v>
       </c>
       <c r="N8">
-        <v>0.230242432649554</v>
+        <v>0.1053258498942569</v>
       </c>
       <c r="O8">
-        <v>0.4493287597201672</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2397250022171846</v>
       </c>
       <c r="Q8">
-        <v>1.12718412211035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4521242612007654</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.069158654779926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.308958594285059</v>
+        <v>3.311132182018014</v>
       </c>
       <c r="C9">
-        <v>0.6200641000880296</v>
+        <v>0.6333365824193322</v>
       </c>
       <c r="D9">
-        <v>0.1107782813743228</v>
+        <v>0.1113239495692255</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.531563906464072</v>
+        <v>0.5043453498996939</v>
       </c>
       <c r="G9">
-        <v>0.3053474511123326</v>
+        <v>0.2768719335230756</v>
       </c>
       <c r="H9">
-        <v>0.001618655445629891</v>
+        <v>0.001360982326695792</v>
       </c>
       <c r="I9">
-        <v>0.001015167914978576</v>
+        <v>0.0009631340517017861</v>
       </c>
       <c r="J9">
-        <v>0.2725731054164697</v>
+        <v>0.2850384257575058</v>
       </c>
       <c r="K9">
-        <v>0.2539483747892994</v>
+        <v>0.233838335103421</v>
       </c>
       <c r="L9">
-        <v>0.1123206913514583</v>
+        <v>0.1183293391465803</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06294392723808429</v>
       </c>
       <c r="N9">
-        <v>0.286754565601683</v>
+        <v>0.1105493539284979</v>
       </c>
       <c r="O9">
-        <v>0.5969589365449437</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.298433321553901</v>
       </c>
       <c r="Q9">
-        <v>1.166650966267639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6016434041863405</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.093309409902531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.91973913709603</v>
+        <v>3.919643718619454</v>
       </c>
       <c r="C10">
-        <v>0.709797687530056</v>
+        <v>0.7334772973136978</v>
       </c>
       <c r="D10">
-        <v>0.1181161863791544</v>
+        <v>0.11921000255753</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.544644247958459</v>
+        <v>0.5093569190544969</v>
       </c>
       <c r="G10">
-        <v>0.3165980994464235</v>
+        <v>0.2986291155832035</v>
       </c>
       <c r="H10">
-        <v>0.0006632475690127038</v>
+        <v>0.0005790445845219594</v>
       </c>
       <c r="I10">
-        <v>0.0008923658629846898</v>
+        <v>0.001099874757352737</v>
       </c>
       <c r="J10">
-        <v>0.2699859414052455</v>
+        <v>0.2650304954111533</v>
       </c>
       <c r="K10">
-        <v>0.235906069863498</v>
+        <v>0.2144321080300227</v>
       </c>
       <c r="L10">
-        <v>0.1171133759368761</v>
+        <v>0.1088264466796494</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0597794538681935</v>
       </c>
       <c r="N10">
-        <v>0.3191827317121891</v>
+        <v>0.1157589662206107</v>
       </c>
       <c r="O10">
-        <v>0.7002177255042668</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3322346632717625</v>
       </c>
       <c r="Q10">
-        <v>1.18555098431932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7061173835982046</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.089841724901035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.232196007614334</v>
+        <v>4.231667178029227</v>
       </c>
       <c r="C11">
-        <v>0.8124236946781025</v>
+        <v>0.8298970463928015</v>
       </c>
       <c r="D11">
-        <v>0.1050298759847408</v>
+        <v>0.1071569563400914</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4819882612209838</v>
+        <v>0.4447433211357463</v>
       </c>
       <c r="G11">
-        <v>0.2762808718801963</v>
+        <v>0.2883861551068136</v>
       </c>
       <c r="H11">
-        <v>0.01919361093646899</v>
+        <v>0.0191371909658109</v>
       </c>
       <c r="I11">
-        <v>0.001466388868205826</v>
+        <v>0.001815206076343223</v>
       </c>
       <c r="J11">
-        <v>0.2454234191957454</v>
+        <v>0.2164570073240384</v>
       </c>
       <c r="K11">
-        <v>0.2053635709053747</v>
+        <v>0.1870709585872667</v>
       </c>
       <c r="L11">
-        <v>0.1387204993113684</v>
+        <v>0.09893896355126053</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05033330016984827</v>
       </c>
       <c r="N11">
-        <v>0.2553490702750736</v>
+        <v>0.1387764882739333</v>
       </c>
       <c r="O11">
-        <v>0.7004255673529016</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2657657214760292</v>
       </c>
       <c r="Q11">
-        <v>1.048841814467764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7056269887385298</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.945397451593891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.368780864852567</v>
+        <v>4.368530379016931</v>
       </c>
       <c r="C12">
-        <v>0.8808360392997372</v>
+        <v>0.8909618749276547</v>
       </c>
       <c r="D12">
-        <v>0.09334328147602378</v>
+        <v>0.09566422830602761</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4309313876899878</v>
+        <v>0.3962804380468867</v>
       </c>
       <c r="G12">
-        <v>0.2432180105185111</v>
+        <v>0.2687261381035384</v>
       </c>
       <c r="H12">
-        <v>0.05790744821695881</v>
+        <v>0.05785661702024925</v>
       </c>
       <c r="I12">
-        <v>0.001486881222493075</v>
+        <v>0.001838955918469054</v>
       </c>
       <c r="J12">
-        <v>0.2267764028892429</v>
+        <v>0.1945973117180024</v>
       </c>
       <c r="K12">
-        <v>0.1872834400149141</v>
+        <v>0.1724944042731575</v>
       </c>
       <c r="L12">
-        <v>0.1661720481480913</v>
+        <v>0.0944456636687212</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04435862438404836</v>
       </c>
       <c r="N12">
-        <v>0.2011038759231383</v>
+        <v>0.166938607416256</v>
       </c>
       <c r="O12">
-        <v>0.6779315165772317</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2092851302724128</v>
       </c>
       <c r="Q12">
-        <v>0.9397745756297411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.68230380528545</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8422078136362785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.376189742597035</v>
+        <v>4.376889984037916</v>
       </c>
       <c r="C13">
-        <v>0.9295687030690942</v>
+        <v>0.9325151244867698</v>
       </c>
       <c r="D13">
-        <v>0.08211611748838976</v>
+        <v>0.08390320320309996</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3835598724533256</v>
+        <v>0.3558695996851498</v>
       </c>
       <c r="G13">
-        <v>0.2118757240147815</v>
+        <v>0.2345102776517436</v>
       </c>
       <c r="H13">
-        <v>0.1137706723428096</v>
+        <v>0.1137057166227606</v>
       </c>
       <c r="I13">
-        <v>0.001415224062141895</v>
+        <v>0.001750328158283132</v>
       </c>
       <c r="J13">
-        <v>0.2105489943229557</v>
+        <v>0.1884605357526823</v>
       </c>
       <c r="K13">
-        <v>0.1763215792059301</v>
+        <v>0.1652460126318767</v>
       </c>
       <c r="L13">
-        <v>0.1992465811852426</v>
+        <v>0.09258149378283129</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04055926553179834</v>
       </c>
       <c r="N13">
-        <v>0.1520902119767555</v>
+        <v>0.200159623837564</v>
       </c>
       <c r="O13">
-        <v>0.637254900296611</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1582851151252811</v>
       </c>
       <c r="Q13">
-        <v>0.8393294444282731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6406497245079379</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7607935267133001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.32265900754345</v>
+        <v>4.324315602071408</v>
       </c>
       <c r="C14">
-        <v>0.9556870481751218</v>
+        <v>0.9536574215395035</v>
       </c>
       <c r="D14">
-        <v>0.07465887302057439</v>
+        <v>0.07586111145668184</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3523458258207768</v>
+        <v>0.3308895807557128</v>
       </c>
       <c r="G14">
-        <v>0.1908350006147543</v>
+        <v>0.2055353413243921</v>
       </c>
       <c r="H14">
-        <v>0.1632314969707949</v>
+        <v>0.1631452405674452</v>
       </c>
       <c r="I14">
-        <v>0.001416499222044898</v>
+        <v>0.00174285049598133</v>
       </c>
       <c r="J14">
-        <v>0.2003067949858064</v>
+        <v>0.1893546165032056</v>
       </c>
       <c r="K14">
-        <v>0.1721270906337882</v>
+        <v>0.1633132279187761</v>
       </c>
       <c r="L14">
-        <v>0.2260359365257401</v>
+        <v>0.09220991092182529</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03901586424972248</v>
       </c>
       <c r="N14">
-        <v>0.1215007556235363</v>
+        <v>0.2266911176156015</v>
       </c>
       <c r="O14">
-        <v>0.6008538107673047</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1265061175558913</v>
       </c>
       <c r="Q14">
-        <v>0.7732197733611059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6035038683395086</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7122753780811593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.281677316906325</v>
+        <v>4.283697276313148</v>
       </c>
       <c r="C15">
-        <v>0.9582762935367839</v>
+        <v>0.9551717163045907</v>
       </c>
       <c r="D15">
-        <v>0.07283756523325735</v>
+        <v>0.07381552824929827</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3448685959443409</v>
+        <v>0.3255804848184063</v>
       </c>
       <c r="G15">
-        <v>0.1855758342478211</v>
+        <v>0.1960383686152127</v>
       </c>
       <c r="H15">
-        <v>0.175801748002911</v>
+        <v>0.1757032796449778</v>
       </c>
       <c r="I15">
-        <v>0.001520055537189258</v>
+        <v>0.001859904027323722</v>
       </c>
       <c r="J15">
-        <v>0.1980833031121705</v>
+        <v>0.1917558845990044</v>
       </c>
       <c r="K15">
-        <v>0.1721407405302604</v>
+        <v>0.1638229614374316</v>
       </c>
       <c r="L15">
-        <v>0.2324525441896483</v>
+        <v>0.09237255710651016</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0389816472760911</v>
       </c>
       <c r="N15">
-        <v>0.1143877456645939</v>
+        <v>0.2329654573041537</v>
       </c>
       <c r="O15">
-        <v>0.588343048776288</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1191325966848069</v>
       </c>
       <c r="Q15">
-        <v>0.7573800785565226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5907790017981611</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7027188301378544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.015294692261023</v>
+        <v>4.018446783906484</v>
       </c>
       <c r="C16">
-        <v>0.9090502552298574</v>
+        <v>0.9071412241673045</v>
       </c>
       <c r="D16">
-        <v>0.07218703551702177</v>
+        <v>0.07243593719552877</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3480833390313229</v>
+        <v>0.3346048761386626</v>
       </c>
       <c r="G16">
-        <v>0.1862944009309473</v>
+        <v>0.1779296579133174</v>
       </c>
       <c r="H16">
-        <v>0.1634479247355927</v>
+        <v>0.1632714927068548</v>
       </c>
       <c r="I16">
-        <v>0.001629879097838405</v>
+        <v>0.00191828389405746</v>
       </c>
       <c r="J16">
-        <v>0.201921841751421</v>
+        <v>0.214218732509373</v>
       </c>
       <c r="K16">
-        <v>0.1810465504039596</v>
+        <v>0.1726227406874754</v>
       </c>
       <c r="L16">
-        <v>0.2224687686797822</v>
+        <v>0.09477135011607069</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04195884995333365</v>
       </c>
       <c r="N16">
-        <v>0.1119004560187165</v>
+        <v>0.2226100670655526</v>
       </c>
       <c r="O16">
-        <v>0.5533706664569209</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1166744232547927</v>
       </c>
       <c r="Q16">
-        <v>0.7667443988623006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5555077196683058</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7296254380624561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.839998490882408</v>
+        <v>3.843437343716175</v>
       </c>
       <c r="C17">
-        <v>0.8575964032135914</v>
+        <v>0.8584692670661411</v>
       </c>
       <c r="D17">
-        <v>0.07553187531121353</v>
+        <v>0.07554389941898165</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3668990917485146</v>
+        <v>0.3543735866540416</v>
       </c>
       <c r="G17">
-        <v>0.1978985437122205</v>
+        <v>0.1809670825769558</v>
       </c>
       <c r="H17">
-        <v>0.1259262503829319</v>
+        <v>0.1256970933014969</v>
       </c>
       <c r="I17">
-        <v>0.001763797623522301</v>
+        <v>0.00201301958921718</v>
       </c>
       <c r="J17">
-        <v>0.2102891244026424</v>
+        <v>0.2310126474407213</v>
       </c>
       <c r="K17">
-        <v>0.1899857075238898</v>
+        <v>0.1806549292646604</v>
       </c>
       <c r="L17">
-        <v>0.1999343947911854</v>
+        <v>0.09728158968534295</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04488197474366284</v>
       </c>
       <c r="N17">
-        <v>0.1254042801177704</v>
+        <v>0.2000218697427485</v>
       </c>
       <c r="O17">
-        <v>0.5457735877335779</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1307524318636482</v>
       </c>
       <c r="Q17">
-        <v>0.808745271042369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5480704583369018</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7749677757328044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.723425179641026</v>
+        <v>3.726571234203846</v>
       </c>
       <c r="C18">
-        <v>0.7978157830152099</v>
+        <v>0.8037369479324354</v>
       </c>
       <c r="D18">
-        <v>0.08319825545204651</v>
+        <v>0.08316615792744386</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4035291107771215</v>
+        <v>0.3888519506904089</v>
       </c>
       <c r="G18">
-        <v>0.2217791520690824</v>
+        <v>0.1991260194935265</v>
       </c>
       <c r="H18">
-        <v>0.07318768768922013</v>
+        <v>0.07293834334983273</v>
       </c>
       <c r="I18">
-        <v>0.001583869001831495</v>
+        <v>0.001765369449752363</v>
       </c>
       <c r="J18">
-        <v>0.2242447006824264</v>
+        <v>0.2477866545475393</v>
       </c>
       <c r="K18">
-        <v>0.2016334870349077</v>
+        <v>0.1904891271361766</v>
       </c>
       <c r="L18">
-        <v>0.1685724695896056</v>
+        <v>0.1007903632421874</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0485103333749759</v>
       </c>
       <c r="N18">
-        <v>0.1577368368217762</v>
+        <v>0.1686753543457726</v>
       </c>
       <c r="O18">
-        <v>0.5606082746359107</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1643422161401986</v>
       </c>
       <c r="Q18">
-        <v>0.888528865205771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.56349184363701</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.849272324685785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.66228981053365</v>
+        <v>3.664747741389306</v>
       </c>
       <c r="C19">
-        <v>0.7430543872173132</v>
+        <v>0.7553315276535955</v>
       </c>
       <c r="D19">
-        <v>0.09463117629913853</v>
+        <v>0.09466260597143616</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4522548302026834</v>
+        <v>0.433176158973275</v>
       </c>
       <c r="G19">
-        <v>0.2536771523391863</v>
+        <v>0.2262593614451305</v>
       </c>
       <c r="H19">
-        <v>0.02777768256223112</v>
+        <v>0.02754701122396597</v>
       </c>
       <c r="I19">
-        <v>0.001688280915788098</v>
+        <v>0.001901898638136501</v>
       </c>
       <c r="J19">
-        <v>0.2414504710049528</v>
+        <v>0.2643494568611615</v>
       </c>
       <c r="K19">
-        <v>0.2160509435597238</v>
+        <v>0.2021410515353761</v>
       </c>
       <c r="L19">
-        <v>0.1397565331894342</v>
+        <v>0.1051742560257107</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05287222735725372</v>
       </c>
       <c r="N19">
-        <v>0.2093607191919347</v>
+        <v>0.1395842263735645</v>
       </c>
       <c r="O19">
-        <v>0.5931148129816108</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.21795241961226</v>
       </c>
       <c r="Q19">
-        <v>0.992165109309866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5969008254642674</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9412553865143849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.75875041226692</v>
+        <v>3.759415056281455</v>
       </c>
       <c r="C20">
-        <v>0.6934883877385403</v>
+        <v>0.7160211366088163</v>
       </c>
       <c r="D20">
-        <v>0.1161483418883336</v>
+        <v>0.1166744560550725</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5364729047409114</v>
+        <v>0.5060320709613251</v>
       </c>
       <c r="G20">
-        <v>0.3097392164066903</v>
+        <v>0.2814264593291966</v>
       </c>
       <c r="H20">
-        <v>0.0008334266041618577</v>
+        <v>0.0007083913840197908</v>
       </c>
       <c r="I20">
-        <v>0.001632335834130139</v>
+        <v>0.001942839098633797</v>
       </c>
       <c r="J20">
-        <v>0.2686122852691568</v>
+        <v>0.2788296487078696</v>
       </c>
       <c r="K20">
-        <v>0.2382160650101124</v>
+        <v>0.2181913546890684</v>
       </c>
       <c r="L20">
-        <v>0.1160497311090332</v>
+        <v>0.110763442169409</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05999633792641745</v>
       </c>
       <c r="N20">
-        <v>0.3117593358832949</v>
+        <v>0.1146804685200919</v>
       </c>
       <c r="O20">
-        <v>0.6737233557029967</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3244235109995515</v>
       </c>
       <c r="Q20">
-        <v>1.168013896144274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6792878041977914</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.086377704778158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.221229831311348</v>
+        <v>4.219195647404717</v>
       </c>
       <c r="C21">
-        <v>0.7516425235871225</v>
+        <v>0.775895382402183</v>
       </c>
       <c r="D21">
-        <v>0.1249040615751795</v>
+        <v>0.1282203990832969</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5608881164765762</v>
+        <v>0.5098013336275855</v>
       </c>
       <c r="G21">
-        <v>0.3281847713302213</v>
+        <v>0.3505308666310896</v>
       </c>
       <c r="H21">
-        <v>0.0001281356347919704</v>
+        <v>0.000105729007500277</v>
       </c>
       <c r="I21">
-        <v>0.001760304911062605</v>
+        <v>0.002168658327713402</v>
       </c>
       <c r="J21">
-        <v>0.2717750771932899</v>
+        <v>0.2208562052878094</v>
       </c>
       <c r="K21">
-        <v>0.2298619698861462</v>
+        <v>0.2037681111525753</v>
       </c>
       <c r="L21">
-        <v>0.1176117777660632</v>
+        <v>0.104077311630391</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05807859354610123</v>
       </c>
       <c r="N21">
-        <v>0.3515983062429768</v>
+        <v>0.1160215827540831</v>
       </c>
       <c r="O21">
-        <v>0.7611991399411693</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3660010298248437</v>
       </c>
       <c r="Q21">
-        <v>1.214089789814082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7679144957042254</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.072692065223819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.525821810104446</v>
+        <v>4.521888650443316</v>
       </c>
       <c r="C22">
-        <v>0.7901649393595562</v>
+        <v>0.8145510617010245</v>
       </c>
       <c r="D22">
-        <v>0.1296355421271755</v>
+        <v>0.1350622395507983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5751722423356114</v>
+        <v>0.5096687968320666</v>
       </c>
       <c r="G22">
-        <v>0.3395702344676721</v>
+        <v>0.4028393401956976</v>
       </c>
       <c r="H22">
-        <v>3.727122364738378E-06</v>
+        <v>3.182792760125785E-06</v>
       </c>
       <c r="I22">
-        <v>0.001782235353990025</v>
+        <v>0.002131768538095713</v>
       </c>
       <c r="J22">
-        <v>0.2735535346559885</v>
+        <v>0.1897358158700619</v>
       </c>
       <c r="K22">
-        <v>0.2242902017735986</v>
+        <v>0.1940876132972491</v>
       </c>
       <c r="L22">
-        <v>0.1192379832212289</v>
+        <v>0.09988698163942455</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05689230200487216</v>
       </c>
       <c r="N22">
-        <v>0.3721227976266874</v>
+        <v>0.1175954104589572</v>
       </c>
       <c r="O22">
-        <v>0.8153350503377368</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3874979630884212</v>
       </c>
       <c r="Q22">
-        <v>1.242171250823162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8227168249482801</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.058980844132023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.363578081400021</v>
+        <v>4.360740667993753</v>
       </c>
       <c r="C23">
-        <v>0.7668876470657722</v>
+        <v>0.792166636410542</v>
       </c>
       <c r="D23">
-        <v>0.1270847785367835</v>
+        <v>0.1310395832570066</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5690671358089929</v>
+        <v>0.512941493575596</v>
       </c>
       <c r="G23">
-        <v>0.3347657136730149</v>
+        <v>0.3693236163889821</v>
       </c>
       <c r="H23">
-        <v>4.738610158594447E-05</v>
+        <v>3.866655268336405E-05</v>
       </c>
       <c r="I23">
-        <v>0.001447848268576912</v>
+        <v>0.001773241286040061</v>
       </c>
       <c r="J23">
-        <v>0.2732603216410041</v>
+        <v>0.2106006485699439</v>
       </c>
       <c r="K23">
-        <v>0.228040897480966</v>
+        <v>0.2004092674037992</v>
       </c>
       <c r="L23">
-        <v>0.1183199806756612</v>
+        <v>0.1024471241205234</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05803732264210026</v>
       </c>
       <c r="N23">
-        <v>0.3605705431346138</v>
+        <v>0.1167199344332062</v>
       </c>
       <c r="O23">
-        <v>0.7861146110528381</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3754190309017389</v>
       </c>
       <c r="Q23">
-        <v>1.231254514114369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7931444935260288</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.075292309305794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.748579161845555</v>
+        <v>3.749183190184681</v>
       </c>
       <c r="C24">
-        <v>0.6834759070223129</v>
+        <v>0.7063344797963396</v>
       </c>
       <c r="D24">
-        <v>0.1175447386065684</v>
+        <v>0.1180662627221736</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5448524854605452</v>
+        <v>0.5137949680458576</v>
       </c>
       <c r="G24">
-        <v>0.3156551778427286</v>
+        <v>0.2863744773550323</v>
       </c>
       <c r="H24">
-        <v>0.0006811401964497144</v>
+        <v>0.0005591547586198953</v>
       </c>
       <c r="I24">
-        <v>0.001140020113156837</v>
+        <v>0.001351339464527257</v>
       </c>
       <c r="J24">
-        <v>0.2717714847555897</v>
+        <v>0.2821647878645379</v>
       </c>
       <c r="K24">
-        <v>0.2418242416204297</v>
+        <v>0.2212139710432925</v>
       </c>
       <c r="L24">
-        <v>0.1148907522720428</v>
+        <v>0.1118859837132913</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0611358039750769</v>
       </c>
       <c r="N24">
-        <v>0.3179580329192362</v>
+        <v>0.1133608005401872</v>
       </c>
       <c r="O24">
-        <v>0.6760800155993465</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3309088852170845</v>
       </c>
       <c r="Q24">
-        <v>1.187166203931682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6817458150243425</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.103878497027409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.08475725442355</v>
+        <v>3.087670289263997</v>
       </c>
       <c r="C25">
-        <v>0.5939890485562387</v>
+        <v>0.6031421351373751</v>
       </c>
       <c r="D25">
-        <v>0.1074193107787877</v>
+        <v>0.1078466916516092</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5217119160436994</v>
+        <v>0.4973334227952506</v>
       </c>
       <c r="G25">
-        <v>0.2975025272320053</v>
+        <v>0.2671139670474929</v>
       </c>
       <c r="H25">
-        <v>0.002275138752242722</v>
+        <v>0.00192413893408383</v>
       </c>
       <c r="I25">
-        <v>0.001772067642359154</v>
+        <v>0.001678888923165367</v>
       </c>
       <c r="J25">
-        <v>0.2716655225758302</v>
+        <v>0.2887635096399279</v>
       </c>
       <c r="K25">
-        <v>0.2585245462315982</v>
+        <v>0.2391082975425078</v>
       </c>
       <c r="L25">
-        <v>0.1110951556994628</v>
+        <v>0.1212263934044842</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06375708666834612</v>
       </c>
       <c r="N25">
-        <v>0.2722888572632343</v>
+        <v>0.1092610478387446</v>
       </c>
       <c r="O25">
-        <v>0.5575087307673883</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2833424183334472</v>
       </c>
       <c r="Q25">
-        <v>1.147940028414595</v>
+        <v>0.5616774244281899</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.082340661115936</v>
       </c>
     </row>
   </sheetData>
